--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -2179,7 +2179,7 @@
   <autoFilter ref="A1:H63">
     <filterColumn colId="4">
       <customFilters>
-        <customFilter operator="equal" val="0.0.4"/>
+        <customFilter operator="equal" val="0.0.3"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -2537,8 +2537,8 @@
   <sheetPr/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2779,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
+    <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="27" hidden="1" spans="1:5">
+    <row r="16" ht="27" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" hidden="1" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" hidden="1" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" hidden="1" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" hidden="1" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" hidden="1" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
@@ -4944,7 +4944,7 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
   <si>
     <t>交付关键特性</t>
   </si>
@@ -140,6 +140,20 @@
     <t>0.0.3</t>
   </si>
   <si>
+    <t>业务介绍目录</t>
+  </si>
+  <si>
+    <t>1. 业务信息表设计
+2. 相关增删改存储过程脚本编写
+3. 业务介绍目录界面设计</t>
+  </si>
+  <si>
+    <t>用户绑定信息补充</t>
+  </si>
+  <si>
+    <t>1. 补充A/B类租赁用户状态显示</t>
+  </si>
+  <si>
     <t>订单管理</t>
   </si>
   <si>
@@ -173,20 +187,6 @@
 2. 搭建VPN提速</t>
   </si>
   <si>
-    <t>业务介绍目录</t>
-  </si>
-  <si>
-    <t>1. 业务信息表设计
-2. 相关增删改存储过程脚本编写
-3. 业务介绍目录界面设计</t>
-  </si>
-  <si>
-    <t>用户绑定信息补充</t>
-  </si>
-  <si>
-    <t>1. 补充A/B类租赁用户状态显示</t>
-  </si>
-  <si>
     <t>微信接入WCA</t>
   </si>
   <si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>1. 系统设计与评审</t>
+  </si>
+  <si>
+    <t>基础功能补充</t>
+  </si>
+  <si>
+    <t>TAG功能设计表设计</t>
+  </si>
+  <si>
+    <t>1. TAG功能设计表设计</t>
+  </si>
+  <si>
+    <t>TAG脚本开发</t>
+  </si>
+  <si>
+    <t>1. TAG脚本开发</t>
+  </si>
+  <si>
+    <t>TAG界面设计开发</t>
+  </si>
+  <si>
+    <t>1. TAG界面设计开发</t>
   </si>
   <si>
     <t>工单系统</t>
@@ -2175,8 +2196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H63" totalsRowShown="0">
-  <autoFilter ref="A1:H63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H66" totalsRowShown="0">
+  <autoFilter ref="A1:H66">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="equal" val="0.0.3"/>
@@ -2535,10 +2556,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2799,38 +2820,32 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" ht="40.5" hidden="1" spans="1:8">
+    <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="27" hidden="1" spans="1:8">
+    </row>
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -2844,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -2859,12 +2874,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:5">
+    <row r="16" ht="27" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -2873,15 +2888,18 @@
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" hidden="1" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -2889,25 +2907,28 @@
       <c r="D17" s="84" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" hidden="1" spans="1:8">
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="84" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2930,8 +2951,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2944,147 +2965,150 @@
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" hidden="1" spans="1:8">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" hidden="1" spans="1:8">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="85" t="s">
-        <v>62</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="85" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3092,68 +3116,68 @@
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:5">
-      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="85" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="85" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>58</v>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:5">
@@ -3161,16 +3185,16 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:5">
@@ -3178,101 +3202,101 @@
         <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="86" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>91</v>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="85" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="E37" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:5">
-      <c r="A38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:5">
-      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" t="s">
         <v>102</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:5">
@@ -3280,16 +3304,16 @@
         <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:5">
@@ -3297,7 +3321,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
@@ -3306,85 +3330,94 @@
         <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" ht="27" hidden="1" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="E42" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:5">
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" hidden="1" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="E43" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:5">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="44" ht="40.5" hidden="1" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="85" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" ht="40.5" hidden="1" spans="1:4">
+      <c r="E44" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" ht="27" hidden="1" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" s="84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" hidden="1" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" ht="27" hidden="1" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
         <v>120</v>
@@ -3393,12 +3426,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" ht="40.5" hidden="1" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
         <v>122</v>
@@ -3407,12 +3440,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" ht="27" hidden="1" spans="1:4">
+    <row r="49" ht="40.5" hidden="1" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
@@ -3421,18 +3454,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" ht="40.5" hidden="1" spans="1:4">
+    <row r="50" ht="27" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:4">
@@ -3440,12 +3473,12 @@
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
         <v>129</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="84" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3454,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
         <v>131</v>
@@ -3463,17 +3496,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" ht="40.5" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="84" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3491,7 +3524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" ht="40.5" hidden="1" spans="1:4">
+    <row r="55" ht="27" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -3510,13 +3543,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
         <v>140</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
@@ -3524,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
         <v>143</v>
@@ -3533,12 +3566,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" ht="27" hidden="1" spans="1:4">
+    <row r="58" ht="40.5" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
         <v>145</v>
@@ -3591,30 +3624,72 @@
     </row>
     <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
         <v>158</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" ht="27" hidden="1" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
         <v>159</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +3718,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3667,10 +3742,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -3715,18 +3790,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="42" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71" t="s">
@@ -3737,15 +3812,15 @@
     <row r="8" spans="1:9">
       <c r="A8" s="12"/>
       <c r="B8" s="31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31" t="s">
@@ -3756,19 +3831,19 @@
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
       <c r="B9" s="31" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="33" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I9" s="57"/>
     </row>
@@ -3797,19 +3872,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I12" s="57"/>
     </row>
@@ -3837,13 +3912,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -3857,10 +3932,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="68"/>
       <c r="B16" s="73" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -3874,27 +3949,27 @@
     <row r="17" spans="1:9">
       <c r="A17" s="68"/>
       <c r="B17" s="73" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="73" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="68"/>
       <c r="B18" s="73" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -3908,44 +3983,44 @@
     <row r="19" spans="1:9">
       <c r="A19" s="68"/>
       <c r="B19" s="73" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="73" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="68"/>
       <c r="B20" s="73" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="73" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="68"/>
       <c r="B21" s="73" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -3959,10 +4034,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="68"/>
       <c r="B22" s="73" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -3976,10 +4051,10 @@
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="40"/>
       <c r="B23" s="41" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D23" s="83"/>
       <c r="E23" s="83"/>
@@ -3992,10 +4067,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -4029,10 +4104,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -4119,7 +4194,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4143,10 +4218,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -4191,18 +4266,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="42" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71" t="s">
@@ -4213,15 +4288,15 @@
     <row r="8" spans="1:9">
       <c r="A8" s="12"/>
       <c r="B8" s="31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31" t="s">
@@ -4232,15 +4307,15 @@
     <row r="9" spans="1:9">
       <c r="A9" s="12"/>
       <c r="B9" s="31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="31" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="33" t="s">
@@ -4273,15 +4348,15 @@
     <row r="12" spans="1:9">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="34" t="s">
@@ -4313,13 +4388,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -4333,10 +4408,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="68"/>
       <c r="B16" s="73" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -4350,27 +4425,27 @@
     <row r="17" spans="1:9">
       <c r="A17" s="68"/>
       <c r="B17" s="73" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="73" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="68"/>
       <c r="B18" s="73" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -4384,27 +4459,27 @@
     <row r="19" spans="1:9">
       <c r="A19" s="68"/>
       <c r="B19" s="73" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="73" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="68"/>
       <c r="B20" s="73" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
@@ -4418,10 +4493,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="68"/>
       <c r="B21" s="73" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -4435,10 +4510,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="68"/>
       <c r="B22" s="73" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -4452,10 +4527,10 @@
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="46"/>
       <c r="B23" s="74" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -4468,22 +4543,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="38" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="38" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="38" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I24" s="59"/>
     </row>
@@ -4508,10 +4583,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -4545,10 +4620,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -4643,7 +4718,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4667,18 +4742,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
@@ -4689,15 +4764,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
@@ -4730,15 +4805,15 @@
     <row r="7" spans="1:9">
       <c r="A7" s="12"/>
       <c r="B7" s="31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="33" t="s">
@@ -4771,15 +4846,15 @@
     <row r="10" spans="1:9">
       <c r="A10" s="12"/>
       <c r="B10" s="31" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="34" t="s">
@@ -4800,22 +4875,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="38" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="38" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I12" s="59"/>
     </row>
@@ -4840,10 +4915,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -4877,10 +4952,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="48" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -4960,22 +5035,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4983,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -5003,13 +5078,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -5023,13 +5098,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -5043,13 +5118,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -5063,13 +5138,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -5083,13 +5158,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -5103,19 +5178,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5123,19 +5198,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5143,13 +5218,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -5163,13 +5238,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -5183,13 +5258,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
@@ -5200,10 +5275,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E13" s="3">
         <v>42549</v>
@@ -5214,10 +5289,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E14" s="3">
         <v>42549</v>
@@ -5228,10 +5303,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E15" s="3">
         <v>42551</v>
@@ -5242,10 +5317,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E16" s="3">
         <v>42551</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -2559,7 +2559,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2818,7 +2818,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
@@ -3075,7 +3077,9 @@
       <c r="E26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3093,7 +3097,9 @@
       <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>交付关键特性</t>
   </si>
@@ -154,6 +154,14 @@
     <t>1. 补充A/B类租赁用户状态显示</t>
   </si>
   <si>
+    <t>用户名称整改</t>
+  </si>
+  <si>
+    <t>1. 增加姓名字段
+2. 用户名称显示格式整改，有姓名的要显示姓名
+3. 搜索整改，可以匹配姓名</t>
+  </si>
+  <si>
     <t>订单管理</t>
   </si>
   <si>
@@ -331,7 +339,7 @@
     <t>服务中心</t>
   </si>
   <si>
-    <t>使用帮助</t>
+    <t>帮助中心</t>
   </si>
   <si>
     <t>1. 起租、退租、充值、退款</t>
@@ -819,13 +827,46 @@
     <t>新用户自动充值</t>
   </si>
   <si>
-    <t>不存在的用户自动创建</t>
+    <t>×</t>
+  </si>
+  <si>
+    <t>搜索不存在的用户提供创建入口</t>
   </si>
   <si>
     <t>渠道用户增加真实姓名字段</t>
   </si>
   <si>
     <t>游戏表增加简介和图片链接字段</t>
+  </si>
+  <si>
+    <t>创建订单时单价和充值分离</t>
+  </si>
+  <si>
+    <t>关联用户时可以新建用户或者选择现有用户</t>
+  </si>
+  <si>
+    <t>用户管理下的用户名要可复制</t>
+  </si>
+  <si>
+    <t>充值时三类操作填上默认值</t>
+  </si>
+  <si>
+    <t>充值备注改为非必填</t>
+  </si>
+  <si>
+    <t>新用户直接创建订单项充不了值</t>
+  </si>
+  <si>
+    <t>新创建的商品直接打开起租单金额不对</t>
+  </si>
+  <si>
+    <t>起租完成时有时候没有弹框，界面卡死</t>
+  </si>
+  <si>
+    <t>AB租不共用时，起租不验证，只在退租验证</t>
+  </si>
+  <si>
+    <t>AB改描述</t>
   </si>
 </sst>
 </file>
@@ -849,6 +890,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -864,12 +911,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1871,7 +1912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,260 +1925,266 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2196,8 +2243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H66" totalsRowShown="0">
-  <autoFilter ref="A1:H66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="equal" val="0.0.3"/>
@@ -2219,7 +2266,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F26" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="内容"/>
@@ -2528,7 +2575,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="87" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="90" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2542,10 +2589,10 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="88"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2556,10 +2603,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2690,7 +2737,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="86" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2710,7 +2757,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="86" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2730,7 +2777,7 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="86" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2750,7 +2797,7 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="86" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2810,7 +2857,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="86" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2832,7 +2879,7 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2856,37 +2903,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="40.5" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="27" hidden="1" spans="1:8">
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" ht="40.5" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="86" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2896,17 +2941,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="40.5" hidden="1" spans="1:8">
+    <row r="17" ht="27" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="86" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2916,177 +2961,177 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:5">
+    <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="86" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="86" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="85" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" hidden="1" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="E24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>73</v>
@@ -3094,42 +3139,45 @@
       <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
@@ -3137,10 +3185,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
@@ -3153,147 +3201,147 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="85" t="s">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="85" t="s">
-        <v>89</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>65</v>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>65</v>
+      <c r="E35" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>65</v>
+      <c r="E36" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>37</v>
+      <c r="E38" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>101</v>
@@ -3301,134 +3349,140 @@
       <c r="D39" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="E40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>65</v>
+      <c r="E41" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
-      <c r="A42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>103</v>
+      <c r="A42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>65</v>
+      <c r="E42" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:5">
-      <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>103</v>
+      <c r="A43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>65</v>
+      <c r="E43" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
-      <c r="A44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="E44" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" ht="27" hidden="1" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:4">
+      <c r="E45" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" ht="27" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="86" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" ht="40.5" hidden="1" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="86" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3437,12 +3491,12 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="86" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3451,110 +3505,110 @@
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="86" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" ht="27" hidden="1" spans="1:4">
+    <row r="50" ht="40.5" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
         <v>126</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:4">
+    </row>
+    <row r="51" ht="27" hidden="1" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="86" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" ht="27" hidden="1" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="86" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" ht="40.5" hidden="1" spans="1:4">
+    <row r="53" ht="27" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="86" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
+    <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" ht="27" hidden="1" spans="1:4">
+    </row>
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" ht="27" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3563,41 +3617,41 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
         <v>142</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>143</v>
       </c>
-      <c r="D57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" ht="40.5" hidden="1" spans="1:4">
+    </row>
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="84" t="s">
+      <c r="D58" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" ht="40.5" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="86" t="s">
         <v>148</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
@@ -3605,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
         <v>150</v>
@@ -3614,32 +3668,32 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" ht="27" hidden="1" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="84" t="s">
+      <c r="D61" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
         <v>154</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="86" t="s">
         <v>155</v>
-      </c>
-      <c r="D62" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
@@ -3647,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -3656,46 +3710,60 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" ht="27" hidden="1" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="84" t="s">
+      <c r="D64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" ht="27" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="86" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>165</v>
       </c>
       <c r="D66" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3718,421 +3786,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="82"/>
-    <col min="2" max="16384" width="9" style="81"/>
+    <col min="1" max="1" width="9" style="84"/>
+    <col min="2" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="75"/>
+      <c r="A3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="76"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="76"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="40"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="77"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71" t="s">
+      <c r="C7" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="31" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
+      <c r="C8" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="57"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" s="81" customFormat="1" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" s="81" customFormat="1" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="57"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" s="83" customFormat="1" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" s="83" customFormat="1" spans="1:9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="34" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="57"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="57"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="58"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="B15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="73" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="79"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="73" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="79"/>
+      <c r="C17" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="70"/>
+      <c r="B19" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="73" t="s">
+      <c r="I19" s="81"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="70"/>
+      <c r="B20" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" s="81"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="70"/>
+      <c r="B21" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
-      <c r="B19" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="73" t="s">
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="70"/>
+      <c r="B22" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="73" t="s">
+      <c r="I22" s="81"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="79"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="61"/>
+      <c r="A24" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="62"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="64"/>
+      <c r="A27" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="40"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="65"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4195,460 +4263,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="78"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="42"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14"/>
+      <c r="B8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="59"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="70"/>
+      <c r="B16" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="81"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="70"/>
+      <c r="B17" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="81"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="70"/>
+      <c r="B18" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="70"/>
+      <c r="B19" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="81"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="70"/>
+      <c r="B20" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="81"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="70"/>
+      <c r="B21" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="70"/>
+      <c r="B22" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="81"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="48"/>
+      <c r="B23" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43">
+        <v>8</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43">
+        <v>6</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43">
+        <v>2</v>
+      </c>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="14"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="75"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="40"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="77"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
-      <c r="B19" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="79"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="46"/>
-      <c r="B23" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="80"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41">
-        <v>8</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41">
-        <v>6</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41">
-        <v>0</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41">
-        <v>2</v>
-      </c>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="40"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="65"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4719,268 +4787,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="56"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="33" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="57"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="57"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="57"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="58"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
+      <c r="A12" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="38" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43">
         <v>13</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43">
         <v>9</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43">
         <v>2</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43">
         <v>2</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="62"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="63"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="64"/>
+      <c r="A17" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="40"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="65"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5023,10 +5091,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5041,22 +5109,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5064,13 +5132,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -5084,13 +5152,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -5104,13 +5172,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -5124,13 +5192,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -5144,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -5164,13 +5232,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -5184,19 +5252,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5207,16 +5275,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5224,13 +5292,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -5244,13 +5312,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -5259,35 +5327,44 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E13" s="3">
         <v>42549</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42555</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5295,41 +5372,217 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E14" s="3">
         <v>42549</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>238</v>
+        <v>251</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E15" s="3">
         <v>42551</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5">
+        <v>42554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="E16" s="3">
         <v>42551</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42554</v>
+      </c>
+      <c r="F17" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42555</v>
+      </c>
+      <c r="F18" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F21" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F22" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F23" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F26" s="5">
+        <v>42555</v>
       </c>
     </row>
   </sheetData>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
   <si>
     <t>交付关键特性</t>
   </si>
@@ -866,7 +866,13 @@
     <t>AB租不共用时，起租不验证，只在退租验证</t>
   </si>
   <si>
-    <t>AB改描述</t>
+    <t>租赁报告中，AB改描述</t>
+  </si>
+  <si>
+    <t>租赁报告中，没有优惠券则不显示</t>
+  </si>
+  <si>
+    <t>租赁报告中，账号密码加背景色</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1932,6 +1938,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2266,7 +2275,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F28" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="内容"/>
@@ -2575,7 +2584,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="90" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="91" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2589,7 +2598,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
@@ -2737,7 +2746,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2757,7 +2766,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="87" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2777,7 +2786,7 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2797,7 +2806,7 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="87" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2857,7 +2866,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="87" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2879,7 +2888,7 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="87" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2910,10 +2919,10 @@
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="89" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2931,7 +2940,7 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="87" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2951,7 +2960,7 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2971,7 +2980,7 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="87" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2991,7 +3000,7 @@
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="87" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3028,7 +3037,7 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="88" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -3043,10 +3052,10 @@
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="88" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3061,10 +3070,10 @@
       <c r="B23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="88" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -3082,7 +3091,7 @@
       <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="88" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -3100,7 +3109,7 @@
       <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="88" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -3118,7 +3127,7 @@
       <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="88" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -3224,10 +3233,10 @@
       <c r="B32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="88" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -3261,7 +3270,7 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="88" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3278,7 +3287,7 @@
       <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="88" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -3292,10 +3301,10 @@
       <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="90" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -3312,7 +3321,7 @@
       <c r="C37" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="88" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -3329,7 +3338,7 @@
       <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="88" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -3383,7 +3392,7 @@
       <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="88" t="s">
         <v>107</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -3400,7 +3409,7 @@
       <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="88" t="s">
         <v>109</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -3417,7 +3426,7 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="88" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -3434,7 +3443,7 @@
       <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="88" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -3451,7 +3460,7 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -3468,7 +3477,7 @@
       <c r="C46" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="87" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3482,7 +3491,7 @@
       <c r="C47" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="87" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3496,7 +3505,7 @@
       <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="87" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3510,7 +3519,7 @@
       <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="87" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3524,7 +3533,7 @@
       <c r="C50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="87" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3538,7 +3547,7 @@
       <c r="C51" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="87" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3552,7 +3561,7 @@
       <c r="C52" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="87" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3566,7 +3575,7 @@
       <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="86" t="s">
+      <c r="D53" s="87" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3580,7 +3589,7 @@
       <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="86" t="s">
+      <c r="D54" s="87" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3608,7 +3617,7 @@
       <c r="C56" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D56" s="87" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3650,7 +3659,7 @@
       <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="87" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3692,7 +3701,7 @@
       <c r="C62" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="86" t="s">
+      <c r="D62" s="87" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3734,7 +3743,7 @@
       <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="87" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3786,421 +3795,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="84"/>
-    <col min="2" max="16384" width="9" style="83"/>
+    <col min="1" max="1" width="9" style="85"/>
+    <col min="2" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="54"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="77"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="42"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="59"/>
-    </row>
-    <row r="10" s="83" customFormat="1" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" s="83" customFormat="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="59"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" s="84" customFormat="1" spans="1:9">
+      <c r="A10" s="15"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" s="84" customFormat="1" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="36" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="59"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="60"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="75" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="70"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="75" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="70"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="75" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="70"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="75" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="70"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="75" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="81"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="70"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="75" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="81"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="70"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="75" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="81"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="63"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="14"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="64"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="65"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="42"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4263,460 +4272,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="54"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="77"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="42"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="59"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="59"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="36" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="59"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="60"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="75" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="70"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="75" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="70"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="75" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="70"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="75" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="70"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="75" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="81"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="70"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="75" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="81"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="70"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="75" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="81"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="48"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="76" t="s">
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="82"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44">
         <v>8</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44">
         <v>6</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43">
+      <c r="E25" s="44"/>
+      <c r="F25" s="44">
         <v>0</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44">
         <v>2</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="63"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="14"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="64"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="65"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="66"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="42"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4787,268 +4796,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="54"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="57"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="58"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="59"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="59"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="42"/>
+      <c r="H12" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44">
         <v>13</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44">
         <v>9</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44">
         <v>2</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44">
         <v>2</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="64"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="65"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="66"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="67"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5091,10 +5100,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5431,6 +5440,9 @@
       <c r="C17" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E17" s="3">
         <v>42554</v>
       </c>
@@ -5448,6 +5460,9 @@
       <c r="C18" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D18" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E18" s="3">
         <v>42555</v>
       </c>
@@ -5465,6 +5480,9 @@
       <c r="C19" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E19" s="5">
         <v>42555</v>
       </c>
@@ -5482,6 +5500,9 @@
       <c r="C20" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E20" s="5">
         <v>42555</v>
       </c>
@@ -5499,6 +5520,9 @@
       <c r="C21" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E21" s="5">
         <v>42555</v>
       </c>
@@ -5516,6 +5540,9 @@
       <c r="C22" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D22" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E22" s="5">
         <v>42555</v>
       </c>
@@ -5533,6 +5560,9 @@
       <c r="C23" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D23" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E23" s="5">
         <v>42555</v>
       </c>
@@ -5541,7 +5571,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5569,7 +5599,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5578,10 +5608,53 @@
       <c r="C26" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="D26" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="E26" s="5">
         <v>42555</v>
       </c>
       <c r="F26" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F27" s="5">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42555</v>
+      </c>
+      <c r="F28" s="5">
         <v>42555</v>
       </c>
     </row>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
-  <si>
-    <t>交付关键特性</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+  <si>
+    <t>待规划特性</t>
   </si>
   <si>
     <t>状态</t>
   </si>
   <si>
-    <t>订单定期提醒用户租期</t>
+    <t>计费延时3小时</t>
+  </si>
+  <si>
+    <t>退租时提醒B租，界面生成报告，易于复制保存</t>
+  </si>
+  <si>
+    <t>B租时A没租，则速度租给A</t>
+  </si>
+  <si>
+    <t>退租单不显示密码</t>
   </si>
   <si>
     <t>IR</t>
@@ -880,12 +889,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,13 +911,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -921,28 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,71 +931,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,14 +947,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,7 +969,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,7 +1105,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,13 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,43 +1255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,91 +1285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,17 +1673,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,30 +1738,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1745,17 +1747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,10 +1778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1788,137 +1790,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,262 +1936,244 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2576,15 +2560,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="91" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="85" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2598,10 +2582,25 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="85" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="85" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2632,1147 +2631,1147 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="40.5" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="27" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="88" t="s">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>37</v>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:5">
-      <c r="A41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>105</v>
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>67</v>
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
-      <c r="A42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>105</v>
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>105</v>
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>67</v>
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:5">
-      <c r="A45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>114</v>
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>67</v>
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" ht="27" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" ht="40.5" hidden="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" ht="40.5" hidden="1" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="87" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="40.5" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="27" hidden="1" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53" ht="27" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="87" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" ht="27" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="40.5" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="87" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="D59" s="84" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="87" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" ht="27" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="D65" s="84" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3795,421 +3794,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="85"/>
-    <col min="2" max="16384" width="9" style="84"/>
+    <col min="1" max="1" width="9" style="82"/>
+    <col min="2" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="54"/>
+      <c r="A1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="55"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="43"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74" t="s">
+      <c r="A7" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="B7" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="81"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="60"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="36" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" s="84" customFormat="1" spans="1:9">
-      <c r="A10" s="15"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" s="84" customFormat="1" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="60"/>
+      <c r="C9" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" s="81" customFormat="1" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" s="81" customFormat="1" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="15"/>
-      <c r="B12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="60"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="60"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="A15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="71"/>
-      <c r="B16" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="82"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="71"/>
-      <c r="B17" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" s="82"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="71"/>
-      <c r="B18" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="82"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="71"/>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="82"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="71"/>
-      <c r="B20" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="I20" s="82"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="71"/>
-      <c r="B21" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="82"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="71"/>
-      <c r="B22" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="82"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="63"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="64"/>
+      <c r="A24" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="15"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="65"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="66"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="67"/>
+      <c r="A27" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="43"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="68"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4272,460 +4271,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="54"/>
+      <c r="A1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="55"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="43"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74" t="s">
+      <c r="A7" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="B7" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="81"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="60"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="36"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="58"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="68"/>
+      <c r="B16" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="68"/>
+      <c r="B17" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="68"/>
+      <c r="B18" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="79"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="68"/>
+      <c r="B19" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="79"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="68"/>
+      <c r="B20" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="79"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="68"/>
+      <c r="B21" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="79"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="68"/>
+      <c r="B22" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="79"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="46"/>
+      <c r="B23" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41">
+        <v>8</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41">
+        <v>6</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41">
+        <v>2</v>
+      </c>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="60"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15"/>
-      <c r="B12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="61"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="71"/>
-      <c r="B16" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="82"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="71"/>
-      <c r="B17" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" s="82"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="71"/>
-      <c r="B18" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="82"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="71"/>
-      <c r="B19" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="82"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="71"/>
-      <c r="B20" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="82"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="71"/>
-      <c r="B21" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="82"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="71"/>
-      <c r="B22" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="82"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="49"/>
-      <c r="B23" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="83"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44">
-        <v>8</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44">
-        <v>6</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44">
-        <v>0</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44">
-        <v>2</v>
-      </c>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="15"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="65"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="67"/>
+      <c r="B29" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="43"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="68"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4796,268 +4795,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13"/>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="36"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41">
+        <v>13</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41">
+        <v>9</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41">
+        <v>2</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41">
+        <v>2</v>
+      </c>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="61"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="57"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="59"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15"/>
-      <c r="B7" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15"/>
-      <c r="B10" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="61"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" s="62"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44">
-        <v>13</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44">
-        <v>9</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44">
-        <v>2</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44">
-        <v>2</v>
-      </c>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="64"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="15"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="67"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="68"/>
+      <c r="B17" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
+      <c r="A18" s="40"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5102,7 +5101,7 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -5118,22 +5117,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5141,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -5161,13 +5160,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -5181,13 +5180,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -5201,13 +5200,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -5221,13 +5220,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -5241,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -5261,19 +5260,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5281,19 +5280,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5301,13 +5300,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -5321,13 +5320,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -5341,19 +5340,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
@@ -5361,18 +5360,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E13" s="3">
         <v>42549</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5381,10 +5380,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E14" s="3">
         <v>42549</v>
@@ -5395,18 +5394,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>235</v>
+        <v>254</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E15" s="3">
         <v>42551</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>42554</v>
       </c>
     </row>
@@ -5415,19 +5414,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E16" s="3">
         <v>42551</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5435,18 +5434,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>235</v>
+        <v>256</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E17" s="3">
         <v>42554</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5455,18 +5454,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>235</v>
+        <v>257</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E18" s="3">
         <v>42555</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5475,18 +5474,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="5">
+        <v>258</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="3">
         <v>42555</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5495,18 +5494,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="5">
+        <v>259</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="3">
         <v>42555</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5515,18 +5514,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="5">
+        <v>260</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="3">
         <v>42555</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5535,18 +5534,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="5">
+        <v>261</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="3">
         <v>42555</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5555,18 +5554,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="5">
+        <v>262</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="3">
         <v>42555</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5575,12 +5574,12 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="5">
+        <v>237</v>
+      </c>
+      <c r="E24" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5589,12 +5588,12 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="5">
+        <v>264</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5603,18 +5602,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="5">
+        <v>265</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="3">
         <v>42555</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5623,18 +5622,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="5">
+        <v>266</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="3">
         <v>42555</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -5643,18 +5642,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="5">
+        <v>267</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="3">
         <v>42555</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>42555</v>
       </c>
     </row>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
   <si>
     <t>待规划特性</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>退租单不显示密码</t>
+  </si>
+  <si>
+    <t>微信建议渠道</t>
+  </si>
+  <si>
+    <t>B租时再组A，要提示双方可能会被踢</t>
+  </si>
+  <si>
+    <t>新密码生成算法修正</t>
   </si>
   <si>
     <t>IR</t>
@@ -2560,13 +2569,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.25" style="85" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -2600,6 +2609,21 @@
     <row r="5" spans="1:1">
       <c r="A5" s="85" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="85" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2631,1147 +2655,1147 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="40.5" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="27" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" hidden="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D36" s="84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" ht="27" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D46" s="84" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D47" s="84" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" ht="40.5" hidden="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D48" s="84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" ht="40.5" hidden="1" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D49" s="84" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="40.5" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D50" s="84" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="27" hidden="1" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D51" s="84" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" s="84" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" ht="27" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D53" s="84" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D54" s="84" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" ht="27" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D56" s="84" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" ht="40.5" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D59" s="84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D62" s="84" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" ht="27" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D65" s="84" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +3824,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3824,10 +3848,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -3872,18 +3896,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71" t="s">
@@ -3894,38 +3918,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I9" s="57"/>
     </row>
@@ -3954,19 +3978,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="13"/>
       <c r="B12" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I12" s="57"/>
     </row>
@@ -3994,13 +4018,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4014,145 +4038,145 @@
     <row r="16" spans="1:9">
       <c r="A16" s="68"/>
       <c r="B16" s="73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="68"/>
       <c r="B17" s="73" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="68"/>
       <c r="B18" s="73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="68"/>
       <c r="B19" s="73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="68"/>
       <c r="B20" s="73" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="68"/>
       <c r="B21" s="73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="68"/>
       <c r="B22" s="73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="79"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="40"/>
       <c r="B23" s="41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D23" s="83"/>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
       <c r="H23" s="41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -4186,10 +4210,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -4276,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4300,10 +4324,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -4348,18 +4372,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71" t="s">
@@ -4370,38 +4394,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="32" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="57"/>
     </row>
@@ -4430,19 +4454,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="13"/>
       <c r="B12" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="57"/>
     </row>
@@ -4470,13 +4494,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4490,157 +4514,157 @@
     <row r="16" spans="1:9">
       <c r="A16" s="68"/>
       <c r="B16" s="73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="68"/>
       <c r="B17" s="73" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="68"/>
       <c r="B18" s="73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="68"/>
       <c r="B19" s="73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="68"/>
       <c r="B20" s="73" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="68"/>
       <c r="B21" s="73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="68"/>
       <c r="B22" s="73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="79"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="46"/>
       <c r="B23" s="74" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="38" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I24" s="59"/>
     </row>
@@ -4665,10 +4689,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -4702,10 +4726,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -4800,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4824,18 +4848,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
@@ -4846,19 +4870,19 @@
     <row r="4" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" s="54"/>
     </row>
@@ -4887,19 +4911,19 @@
     <row r="7" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="57"/>
     </row>
@@ -4928,19 +4952,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="57"/>
     </row>
@@ -4957,22 +4981,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I12" s="59"/>
     </row>
@@ -4997,10 +5021,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -5034,10 +5058,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -5117,22 +5141,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5140,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -5160,13 +5184,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -5180,13 +5204,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -5200,13 +5224,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -5220,13 +5244,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -5240,13 +5264,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -5260,19 +5284,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5280,19 +5304,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5300,13 +5324,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -5320,13 +5344,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -5340,19 +5364,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
@@ -5360,13 +5384,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E13" s="3">
         <v>42549</v>
@@ -5380,10 +5404,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E14" s="3">
         <v>42549</v>
@@ -5394,13 +5418,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E15" s="3">
         <v>42551</v>
@@ -5414,19 +5438,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E16" s="3">
         <v>42551</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5434,13 +5458,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E17" s="3">
         <v>42554</v>
@@ -5454,13 +5478,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E18" s="3">
         <v>42555</v>
@@ -5474,13 +5498,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E19" s="3">
         <v>42555</v>
@@ -5494,13 +5518,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E20" s="3">
         <v>42555</v>
@@ -5514,13 +5538,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E21" s="3">
         <v>42555</v>
@@ -5534,13 +5558,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E22" s="3">
         <v>42555</v>
@@ -5554,13 +5578,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E23" s="3">
         <v>42555</v>
@@ -5574,10 +5598,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E24" s="3">
         <v>42555</v>
@@ -5588,10 +5612,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E25" s="3">
         <v>42555</v>
@@ -5602,13 +5626,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E26" s="3">
         <v>42555</v>
@@ -5622,13 +5646,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3">
         <v>42555</v>
@@ -5642,13 +5666,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E28" s="3">
         <v>42555</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -12,14 +12,15 @@
     <sheet name="5月报" sheetId="3" r:id="rId3"/>
     <sheet name="6月上旬报" sheetId="4" r:id="rId4"/>
     <sheet name="6月下旬报" sheetId="5" r:id="rId5"/>
-    <sheet name="BUG LIST" sheetId="6" r:id="rId6"/>
+    <sheet name="7月规划" sheetId="6" r:id="rId6"/>
+    <sheet name="BUG LIST" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
   <si>
     <t>待规划特性</t>
   </si>
@@ -46,6 +47,12 @@
   </si>
   <si>
     <t>新密码生成算法修正</t>
+  </si>
+  <si>
+    <t>退租完了直接起租报密码错误</t>
+  </si>
+  <si>
+    <t>用户操作记录内容整改</t>
   </si>
   <si>
     <t>IR</t>
@@ -780,6 +787,35 @@
   </si>
   <si>
     <t>1. 筹备离职工作，上午要打卡培训，影响开发进度</t>
+  </si>
+  <si>
+    <t>7月份工作规划</t>
+  </si>
+  <si>
+    <t>研发
+主要
+工作</t>
+  </si>
+  <si>
+    <t>1. 支撑人工客服，规划和解决线上问题
+2. OMC版本迭代优化，自动化流程优化，规划监控特性
+3. 微信接入开发</t>
+  </si>
+  <si>
+    <t>平台
+工作</t>
+  </si>
+  <si>
+    <t>1. 微信接入辅助：wca服务端开发，cdb数据库脚本开发，内容及搜索辅助，自动业务，工单系统
+2. 人工业务支撑：已解决BUG12个，待解决BUG3个，待规划7个</t>
+  </si>
+  <si>
+    <t>微信
+接入</t>
+  </si>
+  <si>
+    <t>1. 前端网页开发，已完成：关联淘宝、账户详情、我要充值，未完成：游戏搜索、游戏简介（攻略）、游戏起租、游戏退租、我要退款、意见建议
+2. 内容辅助：菜单分类、用户/游戏信息补充、游戏简介补充、业务简介补充</t>
   </si>
   <si>
     <t>序号</t>
@@ -903,7 +939,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,17 +954,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1075,7 +1123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1091,6 +1139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,12 +1353,96 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1787,10 +1925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,137 +1937,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1948,242 +2086,281 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2249,7 +2426,7 @@
   <autoFilter ref="A1:H67">
     <filterColumn colId="4">
       <customFilters>
-        <customFilter operator="equal" val="0.0.3"/>
+        <customFilter operator="equal" val="0.0.4"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -2569,15 +2746,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="85" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="98" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2591,39 +2768,49 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="98" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="98" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="98" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="98" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="98" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2825,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2650,1152 +2837,1166 @@
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="94" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" hidden="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" ht="40.5" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="27" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="27" hidden="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" hidden="1" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" hidden="1" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" hidden="1" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="H35" s="97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="27" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="40.5" hidden="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" ht="40.5" hidden="1" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="40.5" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" ht="27" hidden="1" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="53" ht="27" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="D53" s="95" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="84" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" ht="27" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="40.5" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="84" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" ht="27" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3818,421 +4019,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="82"/>
-    <col min="2" max="16384" width="9" style="81"/>
+    <col min="1" max="1" width="9" style="92"/>
+    <col min="2" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="75"/>
+      <c r="A3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="76"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="40"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="77"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71" t="s">
+      <c r="B7" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71" t="s">
+      <c r="C7" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="32" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="57"/>
+      <c r="C8" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34" t="s">
+      <c r="C9" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" s="81" customFormat="1" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" s="81" customFormat="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="57"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" s="91" customFormat="1" spans="1:9">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" s="91" customFormat="1" spans="1:9">
+      <c r="A11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="35" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="57"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="57"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="58"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="B15" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="79"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="73" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="79"/>
+      <c r="C17" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="89"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="78"/>
+      <c r="B19" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
-      <c r="B19" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="79"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="73" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="I20" s="79"/>
+      <c r="C20" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="79"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="79"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="60"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="61"/>
+      <c r="A24" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="62"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="64"/>
+      <c r="A27" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="40"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="65"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4290,465 +4491,465 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="50"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="87"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="88"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="23"/>
+      <c r="B8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23"/>
+      <c r="B12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="67"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="67"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="46"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="78"/>
+      <c r="B16" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="78"/>
+      <c r="B17" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="78"/>
+      <c r="B18" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="89"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="78"/>
+      <c r="B19" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="78"/>
+      <c r="B20" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="78"/>
+      <c r="B21" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="89"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="78"/>
+      <c r="B22" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="89"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="56"/>
+      <c r="B23" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51">
+        <v>8</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51">
+        <v>6</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51">
+        <v>2</v>
+      </c>
+      <c r="I25" s="70"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="71"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="23"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="72"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="75"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="40"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="77"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="79"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
-      <c r="B19" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="79"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="46"/>
-      <c r="B23" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="80"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41">
-        <v>8</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41">
-        <v>6</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41">
-        <v>0</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41">
-        <v>2</v>
-      </c>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="40"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="65"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4814,273 +5015,273 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E11"/>
+      <selection activeCell="B14" sqref="B14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="54"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="56"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="57"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="57"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="57"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="57"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="36"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="58"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
+      <c r="A12" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="38" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51">
         <v>13</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51">
         <v>9</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51">
         <v>2</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
         <v>2</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="62"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="63"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="64"/>
+      <c r="A17" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="40"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="65"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5123,10 +5324,83 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" ht="62" customHeight="1" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="76" customHeight="1" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5141,22 +5415,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5164,13 +5438,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3">
         <v>42532</v>
@@ -5184,13 +5458,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E3" s="3">
         <v>42532</v>
@@ -5204,13 +5478,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E4" s="3">
         <v>42532</v>
@@ -5224,13 +5498,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>
@@ -5244,13 +5518,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E6" s="3">
         <v>42532</v>
@@ -5264,13 +5538,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E7" s="3">
         <v>42532</v>
@@ -5284,19 +5558,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E8" s="3">
         <v>42532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5304,19 +5578,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E9" s="3">
         <v>42532</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5324,13 +5598,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
@@ -5344,13 +5618,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
@@ -5364,19 +5638,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E12" s="3">
         <v>42545</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
@@ -5384,13 +5658,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E13" s="3">
         <v>42549</v>
@@ -5404,10 +5678,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E14" s="3">
         <v>42549</v>
@@ -5418,13 +5692,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E15" s="3">
         <v>42551</v>
@@ -5438,19 +5712,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E16" s="3">
         <v>42551</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5458,13 +5732,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E17" s="3">
         <v>42554</v>
@@ -5478,13 +5752,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E18" s="3">
         <v>42555</v>
@@ -5498,13 +5772,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E19" s="3">
         <v>42555</v>
@@ -5518,13 +5792,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E20" s="3">
         <v>42555</v>
@@ -5538,13 +5812,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E21" s="3">
         <v>42555</v>
@@ -5558,13 +5832,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E22" s="3">
         <v>42555</v>
@@ -5578,13 +5852,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E23" s="3">
         <v>42555</v>
@@ -5598,10 +5872,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E24" s="3">
         <v>42555</v>
@@ -5612,10 +5886,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E25" s="3">
         <v>42555</v>
@@ -5626,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E26" s="3">
         <v>42555</v>
@@ -5646,13 +5920,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E27" s="3">
         <v>42555</v>
@@ -5666,13 +5940,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E28" s="3">
         <v>42555</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
   <si>
     <t>待规划特性</t>
   </si>
   <si>
     <t>状态</t>
-  </si>
-  <si>
-    <t>计费延时3小时</t>
-  </si>
-  <si>
-    <t>退租时提醒B租，界面生成报告，易于复制保存</t>
-  </si>
-  <si>
-    <t>B租时A没租，则速度租给A</t>
-  </si>
-  <si>
-    <t>退租单不显示密码</t>
-  </si>
-  <si>
-    <t>微信建议渠道</t>
-  </si>
-  <si>
-    <t>B租时再组A，要提示双方可能会被踢</t>
-  </si>
-  <si>
-    <t>新密码生成算法修正</t>
-  </si>
-  <si>
-    <t>退租完了直接起租报密码错误</t>
-  </si>
-  <si>
-    <t>用户操作记录内容整改</t>
   </si>
   <si>
     <t>IR</t>
@@ -187,6 +160,18 @@
 3. 搜索整改，可以匹配姓名</t>
   </si>
   <si>
+    <t>操作流水整改</t>
+  </si>
+  <si>
+    <t>1. 增强字段可读性</t>
+  </si>
+  <si>
+    <t>创建新用户默认操作</t>
+  </si>
+  <si>
+    <t>1. 创建新用户时可勾选默认操作</t>
+  </si>
+  <si>
     <t>订单管理</t>
   </si>
   <si>
@@ -220,6 +205,34 @@
 2. 搭建VPN提速</t>
   </si>
   <si>
+    <t>计费优惠整改</t>
+  </si>
+  <si>
+    <t>1. 计费延时3小时</t>
+  </si>
+  <si>
+    <t>0.0.4</t>
+  </si>
+  <si>
+    <t>合租提示优化</t>
+  </si>
+  <si>
+    <t>1. AB合租时提醒优化，生成报告便于复制
+2. B租时在租A，要提示双方，可能会被踢</t>
+  </si>
+  <si>
+    <t>退租报告优化</t>
+  </si>
+  <si>
+    <t>1. 退租报告密码不显示</t>
+  </si>
+  <si>
+    <t>密码生成算法整改</t>
+  </si>
+  <si>
+    <t>1. 密码生成算法缺陷，不能有3个或以上连续数字</t>
+  </si>
+  <si>
     <t>微信接入WCA</t>
   </si>
   <si>
@@ -260,9 +273,6 @@
   </si>
   <si>
     <t>1. 工单表设计</t>
-  </si>
-  <si>
-    <t>0.0.4</t>
   </si>
   <si>
     <t>工单脚本开发</t>
@@ -824,9 +834,6 @@
     <t>内容</t>
   </si>
   <si>
-    <t>提出人</t>
-  </si>
-  <si>
     <t>创建时间</t>
   </si>
   <si>
@@ -836,9 +843,6 @@
     <t>游戏账号中添加游戏容易点错</t>
   </si>
   <si>
-    <t>天才</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -854,9 +858,6 @@
     <t>增加起租、退租、换租的简表</t>
   </si>
   <si>
-    <t>老孟</t>
-  </si>
-  <si>
     <t>游戏价格管理</t>
   </si>
   <si>
@@ -927,6 +928,9 @@
   </si>
   <si>
     <t>租赁报告中，账号密码加背景色</t>
+  </si>
+  <si>
+    <t>退租之后直接起租，验证报密码错误</t>
   </si>
 </sst>
 </file>
@@ -934,10 +938,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -986,7 +990,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1009,67 +1057,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1092,6 +1089,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,24 +1104,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1178,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,13 +1226,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,85 +1310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,49 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,6 +1820,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,21 +1913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1925,10 +1929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1937,130 +1941,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2350,8 +2354,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2360,7 +2364,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2422,14 +2426,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H67" totalsRowShown="0">
-  <autoFilter ref="A1:H67">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="0.0.4"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73"/>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2445,14 +2443,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F28" totalsRowShown="0">
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E29" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="内容"/>
-    <tableColumn id="3" name="提出人"/>
-    <tableColumn id="4" name="状态"/>
-    <tableColumn id="5" name="创建时间"/>
-    <tableColumn id="6" name="关闭时间"/>
+    <tableColumn id="3" name="状态"/>
+    <tableColumn id="4" name="创建时间"/>
+    <tableColumn id="5" name="关闭时间"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2746,15 +2743,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="98" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="98" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2765,52 +2762,6 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="98" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +2773,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2837,1166 +2788,1271 @@
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="94" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="D7" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="27" hidden="1" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="27" hidden="1" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="27" hidden="1" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" hidden="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" s="94" customFormat="1" spans="1:8">
+      <c r="A17" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="E17" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" ht="40.5" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" hidden="1" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" hidden="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="27" hidden="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" hidden="1" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="27" hidden="1" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:8">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D24" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" hidden="1" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D31" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="D33" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="97" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="95" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="95" t="s">
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
         <v>123</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D50" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" ht="27" hidden="1" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D51" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" hidden="1" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="95" t="s">
+      <c r="C52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="48" ht="40.5" hidden="1" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D52" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="95" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" ht="40.5" hidden="1" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D53" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="95" t="s">
+    </row>
+    <row r="54" ht="40.5" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" ht="40.5" hidden="1" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D54" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="95" t="s">
+    </row>
+    <row r="55" ht="40.5" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" ht="27" hidden="1" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="D55" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="56" ht="40.5" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="95" t="s">
+      <c r="D56" s="95" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="57" ht="27" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="C57" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" ht="27" hidden="1" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D57" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="95" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" ht="40.5" hidden="1" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D58" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="95" t="s">
+    </row>
+    <row r="59" ht="27" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="D59" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="60" ht="40.5" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
         <v>146</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D60" s="95" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" ht="27" hidden="1" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="C61" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="57" hidden="1" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D61" t="s">
         <v>150</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="62" ht="27" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="58" hidden="1" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="D62" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" ht="40.5" hidden="1" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="C64" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="D64" t="s">
         <v>157</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="65" ht="40.5" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
         <v>158</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D65" s="95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C66" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="62" ht="27" hidden="1" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D66" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="95" t="s">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="63" hidden="1" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="D67" t="s">
         <v>164</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="68" ht="27" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
         <v>165</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D68" s="95" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C69" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="65" ht="27" hidden="1" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D69" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="95" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" hidden="1" spans="1:4">
-      <c r="A66" s="1" t="s">
+      <c r="D70" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="71" ht="27" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D71" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" hidden="1" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B72" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C72" t="s">
         <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +4081,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4049,10 +4105,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4097,18 +4153,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
@@ -4119,38 +4175,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4179,19 +4235,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4219,13 +4275,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4239,145 +4295,145 @@
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="50"/>
       <c r="B23" s="51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="51" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -4411,10 +4467,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -4501,7 +4557,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4525,10 +4581,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4573,18 +4629,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
@@ -4595,38 +4651,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4655,19 +4711,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4695,13 +4751,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4715,157 +4771,157 @@
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="56"/>
       <c r="B23" s="84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="84" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="48" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I24" s="69"/>
     </row>
@@ -4890,10 +4946,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -4927,10 +4983,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5025,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5049,18 +5105,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
@@ -5071,19 +5127,19 @@
     <row r="4" spans="1:9">
       <c r="A4" s="23"/>
       <c r="B4" s="24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I4" s="64"/>
     </row>
@@ -5112,19 +5168,19 @@
     <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7" s="67"/>
     </row>
@@ -5153,19 +5209,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -5182,22 +5238,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="48" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -5222,10 +5278,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -5259,10 +5315,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -5334,7 +5390,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5345,10 +5401,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -5358,10 +5414,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5371,10 +5427,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -5397,143 +5453,124 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42532</v>
       </c>
       <c r="E2" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F2" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>250</v>
+      <c r="D3" s="3">
+        <v>42532</v>
       </c>
       <c r="E3" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F3" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42532</v>
       </c>
       <c r="E4" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F4" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42532</v>
       </c>
       <c r="E5" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F5" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42532</v>
       </c>
       <c r="E6" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F6" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5541,19 +5578,16 @@
         <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42532</v>
       </c>
       <c r="E7" s="3">
-        <v>42532</v>
-      </c>
-      <c r="F7" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5561,39 +5595,33 @@
         <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
         <v>42532</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
         <v>42532</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5601,19 +5629,16 @@
         <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42545</v>
       </c>
       <c r="E10" s="3">
         <v>42545</v>
       </c>
-      <c r="F10" s="3">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5621,19 +5646,16 @@
         <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42545</v>
       </c>
       <c r="E11" s="3">
         <v>42545</v>
       </c>
-      <c r="F11" s="3">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5641,53 +5663,44 @@
         <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
         <v>42545</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>264</v>
       </c>
+      <c r="D13" s="3">
+        <v>42549</v>
+      </c>
       <c r="E13" s="3">
-        <v>42549</v>
-      </c>
-      <c r="F13" s="3">
         <v>42555</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>42549</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5695,19 +5708,16 @@
         <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42551</v>
       </c>
       <c r="E15" s="3">
-        <v>42551</v>
-      </c>
-      <c r="F15" s="3">
         <v>42554</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5715,19 +5725,16 @@
         <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="3">
+      <c r="D16" s="3">
         <v>42551</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5735,19 +5742,16 @@
         <v>268</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D17" s="3">
+        <v>42554</v>
       </c>
       <c r="E17" s="3">
-        <v>42554</v>
-      </c>
-      <c r="F17" s="3">
         <v>42555</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5755,19 +5759,16 @@
         <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D18" s="3">
+        <v>42555</v>
       </c>
       <c r="E18" s="3">
         <v>42555</v>
       </c>
-      <c r="F18" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5775,19 +5776,16 @@
         <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D19" s="3">
+        <v>42555</v>
       </c>
       <c r="E19" s="3">
         <v>42555</v>
       </c>
-      <c r="F19" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5795,19 +5793,16 @@
         <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42555</v>
       </c>
       <c r="E20" s="3">
         <v>42555</v>
       </c>
-      <c r="F20" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5815,19 +5810,16 @@
         <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42555</v>
       </c>
       <c r="E21" s="3">
         <v>42555</v>
       </c>
-      <c r="F21" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5835,19 +5827,16 @@
         <v>273</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D22" s="3">
+        <v>42555</v>
       </c>
       <c r="E22" s="3">
         <v>42555</v>
       </c>
-      <c r="F22" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5855,47 +5844,38 @@
         <v>274</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42555</v>
       </c>
       <c r="E23" s="3">
         <v>42555</v>
       </c>
-      <c r="F23" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
         <v>42555</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3">
         <v>42555</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5903,56 +5883,64 @@
         <v>277</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42555</v>
       </c>
       <c r="E26" s="3">
         <v>42555</v>
       </c>
-      <c r="F26" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>250</v>
+      <c r="C27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42555</v>
       </c>
       <c r="E27" s="3">
         <v>42555</v>
       </c>
-      <c r="F27" s="3">
-        <v>42555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>250</v>
+      <c r="C28" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="3">
+        <v>42555</v>
       </c>
       <c r="E28" s="3">
         <v>42555</v>
       </c>
-      <c r="F28" s="3">
-        <v>42555</v>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="3">
+        <v>42557</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42559</v>
       </c>
     </row>
   </sheetData>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -166,6 +166,9 @@
     <t>1. 增强字段可读性</t>
   </si>
   <si>
+    <t>0.0.4</t>
+  </si>
+  <si>
     <t>创建新用户默认操作</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>1. 计费延时3小时</t>
-  </si>
-  <si>
-    <t>0.0.4</t>
   </si>
   <si>
     <t>合租提示优化</t>
@@ -939,9 +939,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -983,75 +983,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1009,65 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,8 +1081,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,24 +1113,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,6 +1172,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1184,175 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,17 +1824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,30 +1850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1880,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1921,6 +1895,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1929,10 +1929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1941,137 +1941,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2354,17 +2354,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2427,7 +2421,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73"/>
+  <autoFilter ref="A1:H73">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="0.0.3"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2751,7 +2751,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="98" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="96" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2775,8 +2775,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2817,7 +2817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:8">
+    <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="94" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2917,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:8">
+    <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="94" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2937,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="94" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2957,7 +2957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:8">
+    <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="94" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2977,7 +2977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="94" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="40.5" spans="1:4">
+    <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3049,11 +3049,11 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="94" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3103,48 +3103,48 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" s="94" customFormat="1" spans="1:8">
-      <c r="A17" s="96" t="s">
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="97" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="D17" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18" ht="40.5" spans="1:8">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="95" t="s">
         <v>49</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -3153,18 +3153,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:8">
+    <row r="19" ht="27" hidden="1" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="95" t="s">
         <v>51</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -3173,18 +3173,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:8">
+    <row r="20" ht="40.5" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="95" t="s">
         <v>53</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -3193,38 +3193,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:5">
+    <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="95" t="s">
         <v>55</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" s="95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="95" t="s">
         <v>57</v>
       </c>
+      <c r="D22" s="94" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -3232,33 +3235,36 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="94" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="94" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3266,12 +3272,12 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="94" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3358,7 +3364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -3372,10 +3378,10 @@
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -3389,10 +3395,10 @@
         <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3534,7 +3540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -3548,13 +3554,13 @@
         <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" hidden="1" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3568,30 +3574,30 @@
         <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="94" t="s">
         <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -3605,10 +3611,10 @@
         <v>108</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3662,7 +3668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -3676,10 +3682,10 @@
         <v>118</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -3693,10 +3699,10 @@
         <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3710,10 +3716,10 @@
         <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -3727,10 +3733,10 @@
         <v>124</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3744,10 +3750,10 @@
         <v>127</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" ht="27" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" ht="27" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -3757,11 +3763,11 @@
       <c r="C52" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="D52" s="94" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -3771,11 +3777,11 @@
       <c r="C53" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="95" t="s">
+      <c r="D53" s="94" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" ht="40.5" spans="1:4">
+    <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3785,11 +3791,11 @@
       <c r="C54" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="95" t="s">
+      <c r="D54" s="94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" ht="40.5" spans="1:4">
+    <row r="55" ht="40.5" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3799,11 +3805,11 @@
       <c r="C55" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="95" t="s">
+      <c r="D55" s="94" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" ht="40.5" spans="1:4">
+    <row r="56" ht="40.5" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -3813,11 +3819,11 @@
       <c r="C56" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D56" s="94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:4">
+    <row r="57" ht="27" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -3827,11 +3833,11 @@
       <c r="C57" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3841,11 +3847,11 @@
       <c r="C58" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="94" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:4">
+    <row r="59" ht="27" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -3855,11 +3861,11 @@
       <c r="C59" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="94" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:4">
+    <row r="60" ht="40.5" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -3869,11 +3875,11 @@
       <c r="C60" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:4">
+    <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3897,11 +3903,11 @@
       <c r="C62" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="95" t="s">
+      <c r="D62" s="94" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" ht="40.5" spans="1:4">
+    <row r="65" ht="40.5" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3939,11 +3945,11 @@
       <c r="C65" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="95" t="s">
+      <c r="D65" s="94" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:4">
+    <row r="68" ht="27" hidden="1" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -3981,11 +3987,11 @@
       <c r="C68" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="95" t="s">
+      <c r="D68" s="94" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:4">
+    <row r="71" ht="27" hidden="1" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -4023,11 +4029,11 @@
       <c r="C71" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="95" t="s">
+      <c r="D71" s="94" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
@@ -4235,7 +4241,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>194</v>
@@ -4711,7 +4717,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>194</v>
@@ -5168,7 +5174,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>234</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -2776,7 +2776,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3093,7 +3093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:8">
+    <row r="16" customFormat="1" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="27" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
     <t>待规划特性</t>
   </si>
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>支付宝接口</t>
+  </si>
+  <si>
+    <t>报告中记录密码</t>
   </si>
   <si>
     <t>IR</t>
@@ -938,12 +944,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,75 +983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,14 +998,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,25 +1079,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,15 +1095,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,13 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1195,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1208,7 +1219,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,43 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,13 +1315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,73 +1339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,6 +1819,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,6 +1865,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1880,18 +1897,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,17 +1920,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1929,10 +1928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1941,137 +1940,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2356,9 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2743,15 +2739,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="96" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2762,6 +2758,16 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="95" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2781,7 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2793,321 +2799,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="1" hidden="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3115,19 +3121,19 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3135,930 +3141,930 @@
     </row>
     <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="27" hidden="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="40.5" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="95" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="27" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="95" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" s="94" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="27" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D52" s="94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D53" s="94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" ht="40.5" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D54" s="94" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="40.5" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D55" s="94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" ht="40.5" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D56" s="94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" ht="27" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D57" s="94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D58" s="94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="27" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" ht="40.5" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D60" s="94" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" ht="27" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" ht="40.5" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D65" s="94" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" ht="27" hidden="1" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D68" s="94" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" ht="27" hidden="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D71" s="94" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4111,10 +4117,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4159,18 +4165,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
@@ -4181,38 +4187,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4241,19 +4247,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4281,13 +4287,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4301,145 +4307,145 @@
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="50"/>
       <c r="B23" s="51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -4473,10 +4479,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -4563,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4587,10 +4593,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4635,18 +4641,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
@@ -4657,38 +4663,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4717,19 +4723,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4757,13 +4763,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4777,157 +4783,157 @@
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="56"/>
       <c r="B23" s="84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I24" s="69"/>
     </row>
@@ -4952,10 +4958,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -4989,10 +4995,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5087,7 +5093,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5111,18 +5117,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
@@ -5133,19 +5139,19 @@
     <row r="4" spans="1:9">
       <c r="A4" s="23"/>
       <c r="B4" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="64"/>
     </row>
@@ -5174,19 +5180,19 @@
     <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="67"/>
     </row>
@@ -5215,19 +5221,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -5244,22 +5250,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -5284,10 +5290,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -5321,10 +5327,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -5396,7 +5402,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5407,10 +5413,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -5420,10 +5426,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5433,10 +5439,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -5476,19 +5482,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5496,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -5513,10 +5519,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -5530,10 +5536,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -5547,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -5564,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -5581,10 +5587,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -5598,16 +5604,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5615,16 +5621,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5632,10 +5638,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -5649,10 +5655,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -5666,16 +5672,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -5683,10 +5689,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -5700,7 +5706,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -5711,10 +5717,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -5728,16 +5734,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5745,10 +5751,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -5762,10 +5768,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -5779,10 +5785,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -5796,10 +5802,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -5813,10 +5819,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -5830,10 +5836,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -5847,10 +5853,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -5864,7 +5870,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -5875,7 +5881,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -5886,10 +5892,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -5903,10 +5909,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -5920,10 +5926,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -5937,10 +5943,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -2800,8 +2800,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3156,7 +3156,9 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="95" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本规划" sheetId="1" r:id="rId1"/>
@@ -2443,7 +2443,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H75" totalsRowShown="0">
-  <autoFilter ref="A1:H75"/>
+  <autoFilter ref="A1:H75">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="0.0.4"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2761,7 +2767,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2791,8 +2797,8 @@
   <sheetPr/>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2833,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:8">
+    <row r="6" ht="27" hidden="1" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:8">
+    <row r="7" ht="27" hidden="1" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:8">
+    <row r="9" ht="27" hidden="1" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" hidden="1" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="40.5" spans="1:8">
+    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="40.5" spans="1:4">
+    <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:8">
+    <row r="15" ht="40.5" hidden="1" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3129,7 +3135,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" customFormat="1" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="40.5" spans="1:8">
+    <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:8">
+    <row r="19" ht="27" hidden="1" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:8">
+    <row r="20" ht="40.5" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:8">
+    <row r="21" ht="27" hidden="1" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3326,7 +3332,7 @@
       </c>
       <c r="H26" s="95"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" hidden="1" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" hidden="1" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" hidden="1" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" hidden="1" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" hidden="1" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" hidden="1" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" hidden="1" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" hidden="1" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="1:4">
+    <row r="54" ht="27" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" ht="40.5" spans="1:4">
+    <row r="56" ht="40.5" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" ht="40.5" spans="1:4">
+    <row r="57" ht="40.5" hidden="1" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:4">
+    <row r="58" ht="40.5" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:4">
+    <row r="59" ht="27" hidden="1" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:4">
+    <row r="61" ht="27" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" ht="40.5" spans="1:4">
+    <row r="62" ht="40.5" hidden="1" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" ht="27" spans="1:4">
+    <row r="64" ht="27" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" ht="40.5" spans="1:4">
+    <row r="67" ht="40.5" hidden="1" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:4">
+    <row r="70" ht="27" hidden="1" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:4">
+    <row r="73" ht="27" hidden="1" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>181</v>
       </c>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,28 +4,201 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="版本规划" sheetId="1" r:id="rId1"/>
-    <sheet name="需求清单" sheetId="2" r:id="rId2"/>
-    <sheet name="5月报" sheetId="3" r:id="rId3"/>
-    <sheet name="6月上旬报" sheetId="4" r:id="rId4"/>
-    <sheet name="6月下旬报" sheetId="5" r:id="rId5"/>
-    <sheet name="7月规划" sheetId="6" r:id="rId6"/>
-    <sheet name="BUG LIST" sheetId="7" r:id="rId7"/>
+    <sheet name="项目规划" sheetId="1" r:id="rId1"/>
+    <sheet name="版本规划" sheetId="2" r:id="rId2"/>
+    <sheet name="需求清单" sheetId="3" r:id="rId3"/>
+    <sheet name="5月报" sheetId="4" r:id="rId4"/>
+    <sheet name="6月上旬报" sheetId="5" r:id="rId5"/>
+    <sheet name="6月下旬报" sheetId="6" r:id="rId6"/>
+    <sheet name="7月规划" sheetId="7" r:id="rId7"/>
+    <sheet name="BUG LIST" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+  <si>
+    <t>微信接入7-8月份项目规划</t>
+  </si>
+  <si>
+    <t>项目
+目标</t>
+  </si>
+  <si>
+    <t>1. 微信接入基础设施搭建完成，包括：游戏库、用户管理、订单管理、用户操作（充值退款）
+2. 基本的游戏内容完善，包括：游戏清单、游戏分类、游戏简介、游戏参数
+3. 微信公众号正常运作，包括：群发规范、通知规范、用户反馈渠道规范、帮助说明</t>
+  </si>
+  <si>
+    <t>项目
+里程碑</t>
+  </si>
+  <si>
+    <t>主要
+特性
+计划</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>游戏库</t>
+  </si>
+  <si>
+    <t>1. 配套展示页面开发
+2. 搜索</t>
+  </si>
+  <si>
+    <t>8月上旬</t>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 非微信用户信息补充（及规范）
+2. 用户注册
+3. 用户关联绑定
+4. 用户信息查询
+</t>
+  </si>
+  <si>
+    <t>7月上旬</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>1. 订单查询
+2. 起租
+3. 退租</t>
+  </si>
+  <si>
+    <t>7月下旬</t>
+  </si>
+  <si>
+    <t>用户操作</t>
+  </si>
+  <si>
+    <t>1. 充值（微信支付接口）
+2. 退款（支付宝转账接口）</t>
+  </si>
+  <si>
+    <t>7月中旬</t>
+  </si>
+  <si>
+    <t>游戏内容</t>
+  </si>
+  <si>
+    <t>1. 游戏内容规范
+2. 游戏清单（所有）
+3. 游戏分类
+4. 游戏简介，文、图、视频
+5. 游戏参数</t>
+  </si>
+  <si>
+    <t>8月中旬</t>
+  </si>
+  <si>
+    <t>公众号运作</t>
+  </si>
+  <si>
+    <t>1. 群发规范：内容、渠道
+2. 通知规范与开发
+3. 用户反馈渠道设计与开发</t>
+  </si>
+  <si>
+    <t>8月下旬</t>
+  </si>
+  <si>
+    <t>平台
+基础
+能力</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>CDB</t>
+  </si>
+  <si>
+    <t>数据库中间件,数据库接入</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>业务控制系统，自动业务入口</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>负责多媒体接入，比如短信等</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>操作维护中心，人工业务入口，还包括监控台</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WEB自动化，包括PlayStation、淘宝、支付宝等</t>
+  </si>
+  <si>
+    <t>WCA</t>
+  </si>
+  <si>
+    <t>微信接入，管理消息、页面和支付等微信接口</t>
+  </si>
+  <si>
+    <t>WSI</t>
+  </si>
+  <si>
+    <t>WEB服务接口，接入SKI平台的一个通用对外接口</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
   <si>
     <t>待规划特性</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>选择账号和选择用户之前要强制刷新</t>
+  </si>
+  <si>
+    <t>OMC增加用户消费金额</t>
+  </si>
+  <si>
+    <t>用户第一次租某游戏给12小时优惠时间</t>
   </si>
   <si>
     <t>IR</t>
@@ -175,9 +348,6 @@
     <t>1. 创建新用户时可勾选默认操作</t>
   </si>
   <si>
-    <t>订单管理</t>
-  </si>
-  <si>
     <t>余额与订单分离</t>
   </si>
   <si>
@@ -627,20 +797,6 @@
     <t>1. 平台基础能力搭建完成，包括WEB自动化、中央数据库、微信接入、人机接口与消息桩等
 2. 0.0.1版本支持实现业务处理半自动化能力
 3. 能够支撑平均每日3000单的业务量</t>
-  </si>
-  <si>
-    <t>主要
-特性
-计划</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>计划</t>
   </si>
   <si>
     <t>游戏管理</t>
@@ -680,23 +836,6 @@
 2、3未完成</t>
   </si>
   <si>
-    <t>平台
-基础
-能力</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>CDB</t>
-  </si>
-  <si>
-    <t>数据库中间件,数据库接入</t>
-  </si>
-  <si>
     <t>GAME</t>
   </si>
   <si>
@@ -706,15 +845,6 @@
     <t>规划至下个版本</t>
   </si>
   <si>
-    <t>MMA</t>
-  </si>
-  <si>
-    <t>负责多媒体接入，比如短信等</t>
-  </si>
-  <si>
-    <t>OMC</t>
-  </si>
-  <si>
     <t>操作维护中心，包括系统监控和业务监控</t>
   </si>
   <si>
@@ -727,22 +857,7 @@
     <t>6月中旬完成开发</t>
   </si>
   <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WEB自动化，包括PlayStation、淘宝、支付宝等</t>
-  </si>
-  <si>
-    <t>WCA</t>
-  </si>
-  <si>
     <t>微信接入</t>
-  </si>
-  <si>
-    <t>WSI</t>
-  </si>
-  <si>
-    <t>WEB服务接口，接入SKI平台的一个通用对外接口</t>
   </si>
   <si>
     <t>当前
@@ -755,16 +870,10 @@
 3. 设计可以定制化的账号提取和计费算法接口</t>
   </si>
   <si>
-    <t>风险</t>
-  </si>
-  <si>
     <t>1. 订单爆发预计在6月可能中旬，需要赶在此时间点前做好提取和计费，时间较紧</t>
   </si>
   <si>
     <t>SKI平台状态月报(2016年6月14日)</t>
-  </si>
-  <si>
-    <t>用户管理</t>
   </si>
   <si>
     <t>BUG
@@ -960,12 +1069,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,14 +1108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,33 +1121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,29 +1132,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,10 +1158,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,6 +1204,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1134,16 +1236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,7 +1296,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,115 +1470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,14 +1480,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1846,13 +1948,118 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,6 +2069,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,61 +2116,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1951,10 +2139,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1963,137 +2151,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2379,11 +2567,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2441,15 +2683,1646 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="组合 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="860425" y="1254125"/>
+          <a:ext cx="5089525" cy="885825"/>
+          <a:chOff x="1300" y="1705"/>
+          <a:chExt cx="8015" cy="1395"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="组合 18"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="1300" y="2090"/>
+            <a:ext cx="8015" cy="479"/>
+            <a:chOff x="1375" y="1945"/>
+            <a:chExt cx="8015" cy="479"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="2" name="直接连接符 1"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1380" y="2190"/>
+              <a:ext cx="8010" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="3" name="直接连接符 2"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1375" y="1960"/>
+              <a:ext cx="0" cy="465"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="直接连接符 3"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6615" y="1955"/>
+              <a:ext cx="0" cy="465"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="直接连接符 4"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8210" y="1945"/>
+              <a:ext cx="0" cy="465"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="直接连接符 5"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9380" y="1945"/>
+              <a:ext cx="0" cy="465"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="组合 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="1380" y="2466"/>
+            <a:ext cx="5108" cy="629"/>
+            <a:chOff x="1455" y="2321"/>
+            <a:chExt cx="5108" cy="629"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="右大括号 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="3882" y="-106"/>
+              <a:ext cx="255" cy="5109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightBrace">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="文本框 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3116" y="2620"/>
+              <a:ext cx="1754" cy="330"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="黑体" charset="0"/>
+                  <a:ea typeface="黑体" charset="0"/>
+                </a:rPr>
+                <a:t>基础设施搭建</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="组合 12"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="5685" y="2466"/>
+            <a:ext cx="2413" cy="629"/>
+            <a:chOff x="-1616" y="2321"/>
+            <a:chExt cx="8180" cy="629"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="右大括号 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="3882" y="-106"/>
+              <a:ext cx="255" cy="5109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 76880"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="文本框 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="-1616" y="2620"/>
+              <a:ext cx="6321" cy="330"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="黑体" charset="0"/>
+                  <a:ea typeface="黑体" charset="0"/>
+                </a:rPr>
+                <a:t>规范、内容补充</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="组合 15"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="7712" y="2471"/>
+            <a:ext cx="1550" cy="629"/>
+            <a:chOff x="-940" y="2321"/>
+            <a:chExt cx="7694" cy="629"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="右大括号 16"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="3882" y="-106"/>
+              <a:ext cx="255" cy="5109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 60211"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="文本框 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="-940" y="2620"/>
+              <a:ext cx="7694" cy="330"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="黑体" charset="0"/>
+                  <a:ea typeface="黑体" charset="0"/>
+                </a:rPr>
+                <a:t>公众号运作</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="线形标注 2 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1770" y="1705"/>
+            <a:ext cx="976" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout2">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="线形标注 2 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4937" y="1715"/>
+            <a:ext cx="1093" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout2">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="线形标注 2 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6533" y="1715"/>
+            <a:ext cx="1092" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout2">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>15</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="线形标注 2 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7894" y="1715"/>
+            <a:ext cx="956" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout2">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="线形标注 2 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2856" y="1705"/>
+            <a:ext cx="718" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout2">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="黑体" charset="0"/>
+                <a:ea typeface="黑体" charset="0"/>
+              </a:rPr>
+              <a:t>now</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="黑体" charset="0"/>
+              <a:ea typeface="黑体" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直接连接符 19"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3915" y="2085"/>
+            <a:ext cx="0" cy="230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H75" totalsRowShown="0">
-  <autoFilter ref="A1:H75">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="0.0.4"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H75"/>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -2765,25 +4638,719 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="96" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="109"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="56"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="110"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="111"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="112"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="112"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="112"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="112"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="113"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="23"/>
+      <c r="B15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="23"/>
+      <c r="B17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="114"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="114"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="23"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="114"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="23"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="114"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="23"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="114"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="23"/>
+      <c r="B22" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="114"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="23"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="114"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="23"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="114"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="23"/>
+      <c r="B25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="23"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="67"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="23"/>
+      <c r="B27" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="67"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="67"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="23"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="67"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="23"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="67"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="23"/>
+      <c r="B32" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="67"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="46"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="68"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="63"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="78"/>
+      <c r="B36" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="89"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="78"/>
+      <c r="B37" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="89"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="78"/>
+      <c r="B38" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="89"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="78"/>
+      <c r="B39" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="89"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="78"/>
+      <c r="B40" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="89"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="78"/>
+      <c r="B41" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="89"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:9">
+      <c r="A42" s="50"/>
+      <c r="B42" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="70"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="50"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I7"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="C22:E24"/>
+    <mergeCell ref="F22:G24"/>
+    <mergeCell ref="H22:I24"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="F17:G21"/>
+    <mergeCell ref="H17:I21"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="B8:I13"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="F27:G31"/>
+    <mergeCell ref="H27:I31"/>
+    <mergeCell ref="C32:E34"/>
+    <mergeCell ref="F32:G34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="B43:I44"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="95" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2792,13 +5359,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2815,1327 +5382,1329 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="27" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="27" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="27" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" hidden="1" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:8">
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="27" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="27" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="95" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D25" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:8">
+    </row>
+    <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="95"/>
-    </row>
-    <row r="27" hidden="1" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="95" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="95" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="95" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="95" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="95" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="95" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="D53" s="94" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" ht="27" hidden="1" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="D54" s="94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="D55" s="94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" ht="40.5" hidden="1" spans="1:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="D56" s="94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" ht="40.5" hidden="1" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D57" s="94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" ht="40.5" hidden="1" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="D58" s="94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" ht="27" hidden="1" spans="1:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="D60" s="94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" ht="27" hidden="1" spans="1:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D61" s="94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" ht="40.5" hidden="1" spans="1:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" ht="27" hidden="1" spans="1:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="D64" s="94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" spans="1:4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" ht="40.5" hidden="1" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D67" s="94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" ht="27" hidden="1" spans="1:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="D70" s="94" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" ht="27" hidden="1" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="D73" s="94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4147,13 +6716,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I18"/>
+      <selection activeCell="B27" sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4164,7 +6733,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4188,10 +6757,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4236,60 +6805,60 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4318,19 +6887,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4358,165 +6927,165 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="50"/>
       <c r="B23" s="51" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="51" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -4550,10 +7119,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="58" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -4624,7 +7193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I30"/>
@@ -4640,7 +7209,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4664,10 +7233,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4712,60 +7281,60 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="G7" s="81"/>
       <c r="H7" s="81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -4794,19 +7363,19 @@
     <row r="12" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="42" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -4834,177 +7403,177 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="78"/>
       <c r="B16" s="83" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="78"/>
       <c r="B18" s="83" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="78"/>
       <c r="B19" s="83" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="78"/>
       <c r="B21" s="83" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="78"/>
       <c r="B22" s="83" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="56"/>
       <c r="B23" s="84" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="84" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="48" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="48" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I24" s="69"/>
     </row>
@@ -5029,10 +7598,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -5066,10 +7635,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="58" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5148,7 +7717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I18"/>
@@ -5164,7 +7733,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5188,41 +7757,41 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="23"/>
       <c r="B4" s="24" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I4" s="64"/>
     </row>
@@ -5251,19 +7820,19 @@
     <row r="7" spans="1:9">
       <c r="A7" s="23"/>
       <c r="B7" s="42" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="28" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="44" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I7" s="67"/>
     </row>
@@ -5292,19 +7861,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="28" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="45" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -5321,22 +7890,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="48" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="48" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="48" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -5361,10 +7930,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -5398,10 +7967,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="58" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -5460,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G4"/>
@@ -5473,7 +8042,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5484,10 +8053,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -5497,10 +8066,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5510,10 +8079,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -5533,7 +8102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E29"/>
@@ -5553,19 +8122,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5573,10 +8142,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -5590,10 +8159,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -5607,10 +8176,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -5624,10 +8193,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -5641,10 +8210,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -5658,10 +8227,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -5675,16 +8244,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5692,16 +8261,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5709,10 +8278,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -5726,10 +8295,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -5743,16 +8312,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -5760,10 +8329,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -5777,7 +8346,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -5788,10 +8357,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -5805,16 +8374,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5822,10 +8391,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -5839,10 +8408,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -5856,10 +8425,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -5873,10 +8442,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -5890,10 +8459,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -5907,10 +8476,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -5924,10 +8493,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -5941,7 +8510,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -5952,7 +8521,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -5963,10 +8532,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -5980,10 +8549,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -5997,10 +8566,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -6014,10 +8583,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>用户第一次租某游戏给12小时优惠时间</t>
+  </si>
+  <si>
+    <t>起租退租自动弹出报告</t>
   </si>
   <si>
     <t>IR</t>
@@ -1069,10 +1072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1108,21 +1111,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,7 +1132,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,9 +1200,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,8 +1230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,64 +1247,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1296,13 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1311,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,19 +1371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,25 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,7 +1437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,43 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,43 +1479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2030,6 +2033,26 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,30 +2090,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2121,13 +2120,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2139,10 +2142,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2151,137 +2154,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,18 +2573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2608,9 +2602,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2705,7 +2696,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860425" y="1254125"/>
+          <a:off x="860425" y="1273175"/>
           <a:ext cx="5089525" cy="885825"/>
           <a:chOff x="1300" y="1705"/>
           <a:chExt cx="8015" cy="1395"/>
@@ -4646,7 +4637,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="96"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4662,7 +4653,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="61"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4711,94 +4702,94 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="109"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="A6" s="56"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="106"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="56"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="110"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="106"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="111"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="112"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="108"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="112"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="112"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="112"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="113"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
@@ -4826,11 +4817,11 @@
       <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="42" t="s">
         <v>11</v>
       </c>
@@ -4843,9 +4834,9 @@
     <row r="16" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="42"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -4856,11 +4847,11 @@
       <c r="B17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
       <c r="F17" s="42" t="s">
         <v>15</v>
       </c>
@@ -4868,62 +4859,62 @@
       <c r="H17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="114"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="114"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="23"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="114"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="23"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="114"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="44"/>
-      <c r="I21" s="114"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="42" t="s">
         <v>19</v>
       </c>
@@ -4931,40 +4922,40 @@
       <c r="H22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="44"/>
-      <c r="I23" s="114"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="114"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="23"/>
       <c r="B25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="42" t="s">
         <v>22</v>
       </c>
@@ -4977,9 +4968,9 @@
     <row r="26" spans="1:9">
       <c r="A26" s="23"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -5078,7 +5069,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="67"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" ht="14.25" spans="1:9">
       <c r="A34" s="46"/>
       <c r="B34" s="24"/>
       <c r="C34" s="47"/>
@@ -5242,7 +5233,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="74"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" ht="14.25" spans="1:9">
       <c r="A44" s="50"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -5317,13 +5308,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -5351,6 +5342,11 @@
     <row r="4" spans="1:1">
       <c r="A4" s="95" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="95" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5382,321 +5378,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5704,1007 +5700,1007 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D53" s="94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D54" s="94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D55" s="94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56" s="94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D57" s="94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D58" s="94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D60" s="94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D61" s="94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D64" s="94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D67" s="94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D70" s="94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D73" s="94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6733,7 +6729,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -6757,10 +6753,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -6827,38 +6823,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -6890,16 +6886,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -6957,24 +6953,24 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I17" s="89"/>
     </row>
@@ -6991,7 +6987,7 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="89"/>
     </row>
@@ -7001,31 +6997,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I20" s="89"/>
     </row>
@@ -7042,7 +7038,7 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="89"/>
     </row>
@@ -7052,14 +7048,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="89"/>
     </row>
@@ -7076,16 +7072,16 @@
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -7122,7 +7118,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -7209,7 +7205,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7233,10 +7229,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -7303,19 +7299,19 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="67"/>
     </row>
@@ -7325,16 +7321,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -7366,16 +7362,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -7433,24 +7429,24 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I17" s="89"/>
     </row>
@@ -7467,7 +7463,7 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="89"/>
     </row>
@@ -7477,31 +7473,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="89"/>
     </row>
@@ -7518,7 +7514,7 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="89"/>
     </row>
@@ -7528,14 +7524,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="89"/>
     </row>
@@ -7552,28 +7548,28 @@
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I24" s="69"/>
     </row>
@@ -7598,10 +7594,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -7638,7 +7634,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -7733,7 +7729,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7782,16 +7778,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="64"/>
     </row>
@@ -7823,16 +7819,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="67"/>
     </row>
@@ -7861,19 +7857,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -7890,22 +7886,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -7930,10 +7926,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -7970,7 +7966,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -8042,7 +8038,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8053,10 +8049,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -8066,10 +8062,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -8079,10 +8075,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -8122,19 +8118,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8142,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8159,10 +8155,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8176,10 +8172,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8193,10 +8189,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8210,10 +8206,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8227,10 +8223,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8244,16 +8240,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8261,16 +8257,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8278,10 +8274,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8295,10 +8291,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8312,16 +8308,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8329,10 +8325,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8346,7 +8342,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8357,10 +8353,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8374,16 +8370,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8391,10 +8387,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8408,10 +8404,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8425,10 +8421,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8442,10 +8438,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8459,10 +8455,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8476,10 +8472,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8493,10 +8489,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8510,7 +8506,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8521,7 +8517,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8532,10 +8528,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8549,10 +8545,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8566,10 +8562,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8583,10 +8579,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -192,16 +192,7 @@
     <t>待规划特性</t>
   </si>
   <si>
-    <t>选择账号和选择用户之前要强制刷新</t>
-  </si>
-  <si>
-    <t>OMC增加用户消费金额</t>
-  </si>
-  <si>
     <t>用户第一次租某游戏给12小时优惠时间</t>
-  </si>
-  <si>
-    <t>起租退租自动弹出报告</t>
   </si>
   <si>
     <t>IR</t>
@@ -1065,6 +1056,18 @@
   </si>
   <si>
     <t>退租之后直接起租，验证报密码错误</t>
+  </si>
+  <si>
+    <t>选择账号和选择用户之前要强制刷新</t>
+  </si>
+  <si>
+    <t>起租退租自动弹出报告</t>
+  </si>
+  <si>
+    <t>报告配色整改</t>
+  </si>
+  <si>
+    <t>报告增加玩前必读</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1093,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2142,10 +2152,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2154,137 +2164,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2303,268 +2313,271 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2573,49 +2586,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4329,7 +4342,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E33" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="内容"/>
@@ -4641,608 +4654,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="87"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="56"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="106"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="56"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="106"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="107"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="107"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="108"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="109"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="108"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="108"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="109"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="108"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="109"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="88"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="42" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="42" t="s">
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="110"/>
+      <c r="I17" s="111"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="110"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="111"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="110"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="111"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="110"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="111"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="110"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="111"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="42" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="110"/>
+      <c r="I22" s="111"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="110"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="111"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="110"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="111"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="42" t="s">
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="43"/>
+      <c r="H25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="67"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="45" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="67"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="67"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="67"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="67"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="68"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="42" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="45" t="s">
+      <c r="G32" s="43"/>
+      <c r="H32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="67"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="23"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="67"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" ht="14.25" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="68"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="69"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="78"/>
-      <c r="B36" s="83" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="83" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="89"/>
+      <c r="I36" s="90"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="78"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="83" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="89"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="78"/>
-      <c r="B38" s="83" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="83" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="89"/>
+      <c r="I38" s="90"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="78"/>
-      <c r="B39" s="83" t="s">
+      <c r="A39" s="79"/>
+      <c r="B39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="83" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="89"/>
+      <c r="I39" s="90"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="78"/>
-      <c r="B40" s="83" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="83" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="89"/>
+      <c r="I40" s="90"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="78"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="83" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="89"/>
+      <c r="I41" s="90"/>
     </row>
     <row r="42" ht="14.25" spans="1:9">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="51" t="s">
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="70"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="74"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" ht="14.25" spans="1:9">
-      <c r="A44" s="50"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="75"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5308,15 +5321,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="96" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -5330,23 +5343,8 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="95" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5378,321 +5376,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5700,1007 +5698,1007 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="94" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="94" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="94" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="94" t="s">
-        <v>118</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-      <c r="C38" t="s">
-        <v>148</v>
-      </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
         <v>154</v>
       </c>
-      <c r="C42" t="s">
-        <v>157</v>
-      </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="94" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="95" t="s">
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
         <v>170</v>
       </c>
-      <c r="C49" t="s">
-        <v>173</v>
-      </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="94" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D53" s="95" t="s">
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="94" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
         <v>185</v>
       </c>
-      <c r="C55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>189</v>
+      <c r="D55" s="95" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="94" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="94" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
         <v>196</v>
       </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="94" t="s">
-        <v>200</v>
+      <c r="D60" s="95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="D61" s="95" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="94" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
         <v>205</v>
       </c>
-      <c r="C64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="94" t="s">
-        <v>209</v>
+      <c r="D64" s="95" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" t="s">
         <v>212</v>
       </c>
-      <c r="C67" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="94" t="s">
-        <v>216</v>
+      <c r="D67" s="95" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
         <v>217</v>
       </c>
-      <c r="C69" t="s">
-        <v>220</v>
-      </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="94" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
         <v>224</v>
       </c>
-      <c r="C72" t="s">
-        <v>227</v>
-      </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="94" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" t="s">
         <v>231</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
         <v>232</v>
       </c>
-      <c r="C75" t="s">
-        <v>235</v>
-      </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6723,421 +6721,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="92"/>
-    <col min="2" max="16384" width="9" style="91"/>
+    <col min="1" max="1" width="9" style="93"/>
+    <col min="2" max="16384" width="9" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="86"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="87"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="51"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24"/>
+      <c r="B8" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="C8" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="50"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" s="92" customFormat="1" spans="1:9">
+      <c r="A10" s="24"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" s="92" customFormat="1" spans="1:9">
+      <c r="A11" s="24"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="68"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="68"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="47"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="69"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" s="91" customFormat="1" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" s="91" customFormat="1" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="79"/>
+      <c r="B16" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="79"/>
+      <c r="B17" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42" t="s">
+      <c r="C17" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="67"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="63"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="83" t="s">
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="79"/>
+      <c r="B18" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="79"/>
+      <c r="B19" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="79"/>
+      <c r="B20" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="83" t="s">
+      <c r="C20" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="I17" s="89"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
-      <c r="B18" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="89"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="78"/>
-      <c r="B20" s="83" t="s">
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="79"/>
+      <c r="B21" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="90"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="79"/>
+      <c r="B22" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="83" t="s">
+      <c r="B24" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="24"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="73"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="72"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="74"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7200,460 +7198,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="16"/>
+    <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="86"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="87"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="51"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24"/>
+      <c r="B8" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="24"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="24"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="68"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="68"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="47"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="69"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="79"/>
+      <c r="B16" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="79"/>
+      <c r="B17" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="79"/>
+      <c r="B18" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="79"/>
+      <c r="B19" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="79"/>
+      <c r="B20" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="79"/>
+      <c r="B21" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="90"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="79"/>
+      <c r="B22" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="57"/>
+      <c r="B23" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="50"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81" t="s">
+      <c r="E24" s="50"/>
+      <c r="F24" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52">
+        <v>8</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52">
         <v>6</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="67"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="63"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="89"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
-      <c r="B18" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="89"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="78"/>
-      <c r="B20" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="55" t="s">
+      <c r="E25" s="52"/>
+      <c r="F25" s="52">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52">
+        <v>2</v>
+      </c>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="56"/>
-      <c r="B23" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48" t="s">
+      <c r="B26" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="72"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="24"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51">
-        <v>8</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51">
-        <v>6</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51">
-        <v>0</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51">
-        <v>2</v>
-      </c>
-      <c r="I25" s="70"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="72"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="74"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="75"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -7724,268 +7722,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="16"/>
+    <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="24"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="24"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24"/>
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="47"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="69"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="66"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52">
+        <v>9</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52">
+        <v>2</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52">
+        <v>2</v>
+      </c>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="72"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="24"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="74"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="46"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="68"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51">
-        <v>13</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51">
-        <v>9</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51">
-        <v>2</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51">
-        <v>2</v>
-      </c>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="72"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="73"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="74"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="50"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="75"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -8037,54 +8035,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" ht="62" customHeight="1" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="48" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" ht="76" customHeight="1" spans="1:7">
+      <c r="A4" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" ht="62" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="76" customHeight="1" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8101,10 +8099,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8118,19 +8116,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8138,10 +8136,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8155,10 +8153,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8172,10 +8170,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8189,10 +8187,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8206,10 +8204,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8223,10 +8221,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8240,16 +8238,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8257,16 +8255,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8274,10 +8272,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8291,10 +8289,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8308,16 +8306,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8325,10 +8323,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8342,7 +8340,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8353,10 +8351,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8370,16 +8368,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8387,10 +8385,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8404,10 +8402,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8421,10 +8419,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8438,10 +8436,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8455,10 +8453,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8472,10 +8470,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8489,10 +8487,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8506,7 +8504,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8517,7 +8515,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8528,10 +8526,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8545,10 +8543,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8562,10 +8560,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8579,16 +8577,84 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
       </c>
       <c r="E29" s="3">
         <v>42559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="3">
+        <v>42567</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42567</v>
+      </c>
+      <c r="E31" s="3">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42568</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="6">
+        <v>42568</v>
+      </c>
+      <c r="E33" s="6">
+        <v>42569</v>
       </c>
     </row>
   </sheetData>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -2294,7 +2294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,10 +2310,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4654,608 +4657,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="86"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="87"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="107"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="107"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="109"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="109"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="109"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="109"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="110"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="111"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82" t="s">
+      <c r="G14" s="83"/>
+      <c r="H14" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="68"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="24"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="111"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="24"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="111"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="112"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="24"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="111"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="24"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="111"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="112"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="24"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="111"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="112"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="24"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="111"/>
+      <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="24"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="111"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="24"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="111"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="24"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="24"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="68"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="46" t="s">
+      <c r="G27" s="44"/>
+      <c r="H27" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="24"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="68"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="24"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="68"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="24"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="68"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="24"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="68"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="24"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="46" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="68"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="24"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="68"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="69"/>
     </row>
     <row r="34" ht="14.25" spans="1:9">
-      <c r="A34" s="47"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="70"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="64"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
-      <c r="B36" s="84" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="84" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
-      <c r="B37" s="84" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="84" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="90"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
-      <c r="B38" s="84" t="s">
+      <c r="A38" s="80"/>
+      <c r="B38" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="84" t="s">
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
-      <c r="B39" s="84" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="84" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="90"/>
+      <c r="I39" s="91"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
-      <c r="B40" s="84" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="84" t="s">
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="90"/>
+      <c r="I40" s="91"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
-      <c r="B41" s="84" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="84" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="90"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" ht="14.25" spans="1:9">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="52" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="71"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="75"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" ht="14.25" spans="1:9">
-      <c r="A44" s="51"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="76"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5329,7 +5332,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="96" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="97" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -5343,7 +5346,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5490,7 +5493,7 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="96" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5510,7 +5513,7 @@
       <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -5530,7 +5533,7 @@
       <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="96" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5550,7 +5553,7 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="96" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -5610,7 +5613,7 @@
       <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="96" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5632,7 +5635,7 @@
       <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="96" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5666,7 +5669,7 @@
       <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="96" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5686,7 +5689,7 @@
       <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="96" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5706,7 +5709,7 @@
       <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="96" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5728,7 +5731,7 @@
       <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="96" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5748,7 +5751,7 @@
       <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="96" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -5768,7 +5771,7 @@
       <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="96" t="s">
         <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -5788,7 +5791,7 @@
       <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="96" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -5808,7 +5811,7 @@
       <c r="C22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="96" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -5828,7 +5831,7 @@
       <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="96" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -5845,7 +5848,7 @@
       <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="96" t="s">
         <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -5865,7 +5868,7 @@
       <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="96" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -5885,7 +5888,7 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="96" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -6207,10 +6210,10 @@
       <c r="B43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="95" t="s">
+      <c r="D43" s="96" t="s">
         <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -6383,7 +6386,7 @@
       <c r="C53" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="95" t="s">
+      <c r="D53" s="96" t="s">
         <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -6403,7 +6406,7 @@
       <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="95" t="s">
+      <c r="D54" s="96" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6417,7 +6420,7 @@
       <c r="C55" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="95" t="s">
+      <c r="D55" s="96" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6431,7 +6434,7 @@
       <c r="C56" t="s">
         <v>187</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D56" s="96" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6445,7 +6448,7 @@
       <c r="C57" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="96" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6459,7 +6462,7 @@
       <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="96" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6473,7 +6476,7 @@
       <c r="C59" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="96" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6487,7 +6490,7 @@
       <c r="C60" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="96" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6501,7 +6504,7 @@
       <c r="C61" t="s">
         <v>198</v>
       </c>
-      <c r="D61" s="95" t="s">
+      <c r="D61" s="96" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6515,7 +6518,7 @@
       <c r="C62" t="s">
         <v>200</v>
       </c>
-      <c r="D62" s="95" t="s">
+      <c r="D62" s="96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6543,7 +6546,7 @@
       <c r="C64" t="s">
         <v>205</v>
       </c>
-      <c r="D64" s="95" t="s">
+      <c r="D64" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6585,7 +6588,7 @@
       <c r="C67" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="96" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6627,7 +6630,7 @@
       <c r="C70" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="95" t="s">
+      <c r="D70" s="96" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6669,7 +6672,7 @@
       <c r="C73" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="95" t="s">
+      <c r="D73" s="96" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6721,421 +6724,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="93"/>
-    <col min="2" max="16384" width="9" style="92"/>
+    <col min="1" max="1" width="9" style="94"/>
+    <col min="2" max="16384" width="9" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="86"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="87"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="88"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="68"/>
-    </row>
-    <row r="10" s="92" customFormat="1" spans="1:9">
-      <c r="A10" s="24"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" s="92" customFormat="1" spans="1:9">
-      <c r="A11" s="24"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="68"/>
+      <c r="I9" s="69"/>
+    </row>
+    <row r="10" s="93" customFormat="1" spans="1:9">
+      <c r="A10" s="25"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="69"/>
+    </row>
+    <row r="11" s="93" customFormat="1" spans="1:9">
+      <c r="A11" s="25"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="24"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="46" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="47"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="79"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="84" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79"/>
-      <c r="B17" s="84" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="84" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="84" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="84" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="84" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="90"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="84" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
-      <c r="B22" s="84" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="52" t="s">
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="24"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="73"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="74"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="75"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="51"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="76"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7198,460 +7201,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="17"/>
+    <col min="1" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="86"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="87"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="88"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="24"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="68"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="24"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="68"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="24"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="46" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="47"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="64"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="79"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="84" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79"/>
-      <c r="B17" s="84" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="84" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="84" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="84" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="84" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="90"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="84" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
-      <c r="B22" s="84" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="85" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="85" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="91"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="70"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53">
         <v>8</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53">
         <v>6</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52">
+      <c r="E25" s="53"/>
+      <c r="F25" s="53">
         <v>0</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52">
+      <c r="G25" s="53"/>
+      <c r="H25" s="53">
         <v>2</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="72"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="24"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="73"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="74"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="75"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="51"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="76"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -7722,268 +7725,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="17"/>
+    <col min="1" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="24"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="66"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="24"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="67"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="24"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="29" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="68"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="68"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="24"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="46" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="47"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53">
         <v>13</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53">
         <v>9</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52">
+      <c r="E13" s="53"/>
+      <c r="F13" s="53">
         <v>2</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53">
         <v>2</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="72"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="73"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="74"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="75"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="51"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="76"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -8035,54 +8038,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8102,7 +8105,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8499,25 +8502,37 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="D24" s="3">
         <v>42555</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="6">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D25" s="3">
+        <v>42555</v>
+      </c>
+      <c r="E25" s="6">
         <v>42555</v>
       </c>
     </row>
@@ -8545,7 +8560,7 @@
       <c r="B27" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D27" s="3">
@@ -8562,7 +8577,7 @@
       <c r="B28" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D28" s="3">
@@ -8579,7 +8594,7 @@
       <c r="B29" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D29" s="3">
@@ -8596,7 +8611,7 @@
       <c r="B30" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D30" s="3">
@@ -8613,7 +8628,7 @@
       <c r="B31" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D31" s="6">
@@ -8630,7 +8645,7 @@
       <c r="B32" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D32" s="6">
@@ -8647,7 +8662,7 @@
       <c r="B33" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D33" s="6">

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>用户第一次租某游戏给12小时优惠时间</t>
+  </si>
+  <si>
+    <t>自动业务定时检测AB租绑定状态</t>
   </si>
   <si>
     <t>IR</t>
@@ -5324,13 +5327,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="43.25" style="97" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -5348,6 +5351,11 @@
     <row r="2" spans="1:1">
       <c r="A2" s="97" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="97" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5379,321 +5387,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5701,1007 +5709,1007 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D54" s="96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D55" s="96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D56" s="96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57" s="96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D58" s="96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" s="96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D60" s="96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D61" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D62" s="96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D64" s="96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D70" s="96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D73" s="96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6738,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6754,10 +6762,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -6824,38 +6832,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I9" s="69"/>
     </row>
@@ -6887,16 +6895,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -6954,24 +6962,24 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="80"/>
       <c r="B17" s="85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I17" s="91"/>
     </row>
@@ -6988,7 +6996,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="91"/>
     </row>
@@ -6998,31 +7006,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="80"/>
       <c r="B20" s="85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I20" s="91"/>
     </row>
@@ -7039,7 +7047,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="91"/>
     </row>
@@ -7049,14 +7057,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="91"/>
     </row>
@@ -7073,16 +7081,16 @@
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
       <c r="H23" s="53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
@@ -7119,7 +7127,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -7206,7 +7214,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7230,10 +7238,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -7300,19 +7308,19 @@
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="69"/>
     </row>
@@ -7322,16 +7330,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="69"/>
     </row>
@@ -7363,16 +7371,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -7430,24 +7438,24 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="80"/>
       <c r="B17" s="85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I17" s="91"/>
     </row>
@@ -7464,7 +7472,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="91"/>
     </row>
@@ -7474,31 +7482,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="80"/>
       <c r="B20" s="85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="91"/>
     </row>
@@ -7515,7 +7523,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="91"/>
     </row>
@@ -7525,14 +7533,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="91"/>
     </row>
@@ -7549,28 +7557,28 @@
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
       <c r="H23" s="86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I24" s="71"/>
     </row>
@@ -7595,10 +7603,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -7635,7 +7643,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -7730,7 +7738,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7779,16 +7787,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="66"/>
     </row>
@@ -7820,16 +7828,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="69"/>
     </row>
@@ -7858,19 +7866,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="69"/>
     </row>
@@ -7887,22 +7895,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I12" s="71"/>
     </row>
@@ -7927,10 +7935,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -7967,7 +7975,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -8039,7 +8047,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8050,10 +8058,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -8063,10 +8071,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8076,10 +8084,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -8104,7 +8112,7 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8119,19 +8127,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8139,10 +8147,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8156,10 +8164,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8173,10 +8181,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8190,10 +8198,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8207,10 +8215,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8224,10 +8232,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8241,16 +8249,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8258,16 +8266,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8275,10 +8283,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8292,10 +8300,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8309,16 +8317,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8326,10 +8334,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8343,7 +8351,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8354,10 +8362,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8371,16 +8379,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8388,10 +8396,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8405,10 +8413,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8422,10 +8430,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8439,10 +8447,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8456,10 +8464,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8473,10 +8481,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8490,10 +8498,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8507,10 +8515,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8524,10 +8532,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8541,10 +8549,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8558,10 +8566,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8575,10 +8583,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8592,10 +8600,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
@@ -8609,10 +8617,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="3">
         <v>42567</v>
@@ -8626,10 +8634,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" s="6">
         <v>42567</v>
@@ -8643,10 +8651,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D32" s="6">
         <v>42568</v>
@@ -8660,10 +8668,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D33" s="6">
         <v>42568</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>自动业务定时检测AB租绑定状态</t>
+  </si>
+  <si>
+    <t>账号增加备注字段</t>
   </si>
   <si>
     <t>IR</t>
@@ -5327,13 +5330,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="43.25" style="97" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -5356,6 +5359,11 @@
     <row r="3" spans="1:1">
       <c r="A3" s="97" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="97" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5387,321 +5395,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5709,1007 +5717,1007 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" s="96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D54" s="96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D55" s="96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D56" s="96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57" s="96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D58" s="96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D59" s="96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D60" s="96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" s="96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D62" s="96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" s="96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D67" s="96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D70" s="96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D73" s="96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6738,7 +6746,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6762,10 +6770,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -6832,38 +6840,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I9" s="69"/>
     </row>
@@ -6895,16 +6903,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -6962,24 +6970,24 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="80"/>
       <c r="B17" s="85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17" s="91"/>
     </row>
@@ -6996,7 +7004,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" s="91"/>
     </row>
@@ -7006,31 +7014,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="80"/>
       <c r="B20" s="85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I20" s="91"/>
     </row>
@@ -7047,7 +7055,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="91"/>
     </row>
@@ -7057,14 +7065,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I22" s="91"/>
     </row>
@@ -7081,16 +7089,16 @@
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
       <c r="H23" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
@@ -7127,7 +7135,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -7214,7 +7222,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7238,10 +7246,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -7308,19 +7316,19 @@
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="69"/>
     </row>
@@ -7330,16 +7338,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="69"/>
     </row>
@@ -7371,16 +7379,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -7438,24 +7446,24 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="80"/>
       <c r="B17" s="85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17" s="91"/>
     </row>
@@ -7472,7 +7480,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" s="91"/>
     </row>
@@ -7482,31 +7490,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="80"/>
       <c r="B20" s="85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="91"/>
     </row>
@@ -7523,7 +7531,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="91"/>
     </row>
@@ -7533,14 +7541,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I22" s="91"/>
     </row>
@@ -7557,28 +7565,28 @@
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
       <c r="H23" s="86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I24" s="71"/>
     </row>
@@ -7603,10 +7611,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -7643,7 +7651,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -7738,7 +7746,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7787,16 +7795,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="66"/>
     </row>
@@ -7828,16 +7836,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="69"/>
     </row>
@@ -7866,19 +7874,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="69"/>
     </row>
@@ -7895,22 +7903,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I12" s="71"/>
     </row>
@@ -7935,10 +7943,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -7975,7 +7983,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -8047,7 +8055,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8058,10 +8066,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -8071,10 +8079,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8084,10 +8092,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -8127,19 +8135,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8147,10 +8155,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8164,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8181,10 +8189,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8198,10 +8206,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8215,10 +8223,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8232,10 +8240,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8249,16 +8257,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8266,16 +8274,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8283,10 +8291,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8300,10 +8308,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8317,16 +8325,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8334,10 +8342,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8351,7 +8359,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8362,10 +8370,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8379,16 +8387,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8396,10 +8404,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8413,10 +8421,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8430,10 +8438,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8447,10 +8455,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8464,10 +8472,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8481,10 +8489,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8498,10 +8506,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8515,10 +8523,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8532,10 +8540,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8549,10 +8557,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8566,10 +8574,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8583,10 +8591,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8600,10 +8608,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
@@ -8617,10 +8625,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D30" s="3">
         <v>42567</v>
@@ -8634,10 +8642,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D31" s="6">
         <v>42567</v>
@@ -8651,10 +8659,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D32" s="6">
         <v>42568</v>
@@ -8668,10 +8676,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D33" s="6">
         <v>42568</v>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>账号增加备注字段</t>
+  </si>
+  <si>
+    <t>余额统一整改为实时余额</t>
+  </si>
+  <si>
+    <t>搜索大小写不敏感</t>
   </si>
   <si>
     <t>IR</t>
@@ -1081,12 +1087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,13 +1105,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1133,6 +1132,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1140,15 +1148,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,39 +1200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,36 +1224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1262,11 +1240,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1315,61 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1344,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,25 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,19 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,31 +1482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,18 +2055,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2105,8 +2093,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2136,6 +2126,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2158,10 +2157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,16 +2169,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2188,119 +2187,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2316,277 +2315,271 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2595,49 +2588,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4663,608 +4656,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="87"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="88"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="88"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="58"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="108"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="58"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="108"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="106"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="109"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="110"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="108"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="110"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="110"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="110"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="111"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83" t="s">
+      <c r="G14" s="81"/>
+      <c r="H14" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="44" t="s">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="69"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="25"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="44" t="s">
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="25"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="112"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="25"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="112"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="25"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="112"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="112"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="25"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="44" t="s">
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="46" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="25"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="112"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="25"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="112"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="25"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="44" t="s">
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="25"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="69"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="47" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="25"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="25"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="69"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="25"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="25"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="69"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="25"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="44" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="47" t="s">
+      <c r="G32" s="42"/>
+      <c r="H32" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="25"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="69"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" ht="14.25" spans="1:9">
-      <c r="A34" s="48"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="70"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="65"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="85" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="91"/>
+      <c r="I36" s="89"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
-      <c r="B37" s="85" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="85" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="91"/>
+      <c r="I37" s="89"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
-      <c r="B38" s="85" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="85" t="s">
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="91"/>
+      <c r="I38" s="89"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
-      <c r="B39" s="85" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="85" t="s">
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="91"/>
+      <c r="I39" s="89"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
-      <c r="B40" s="85" t="s">
+      <c r="A40" s="78"/>
+      <c r="B40" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="85" t="s">
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="91"/>
+      <c r="I40" s="89"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
-      <c r="B41" s="85" t="s">
+      <c r="A41" s="78"/>
+      <c r="B41" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="85" t="s">
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="91"/>
+      <c r="I41" s="89"/>
     </row>
     <row r="42" ht="14.25" spans="1:9">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="53" t="s">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="72"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="76"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="74"/>
     </row>
     <row r="44" ht="14.25" spans="1:9">
-      <c r="A44" s="52"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="77"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5330,15 +5323,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="97" customWidth="1"/>
+    <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -5352,18 +5345,28 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="95" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="95" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="95" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5395,321 +5398,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="96" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5717,1007 +5720,1007 @@
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>113</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="96" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>161</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="96" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>185</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" s="96" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="96" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="96" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="96" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="96" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="D58" s="94" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
-      </c>
-      <c r="D59" s="96" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D59" s="94" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="96" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="D60" s="94" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="96" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" s="96" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="D64" s="94" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="96" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="D67" s="94" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" ht="27" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="96" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D73" s="94" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6740,421 +6743,421 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="94"/>
-    <col min="2" max="16384" width="9" style="93"/>
+    <col min="1" max="1" width="9" style="92"/>
+    <col min="2" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="63"/>
+      <c r="A1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="87"/>
+      <c r="A3" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="88"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="88"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="52"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="89"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
-      <c r="B8" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="44" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="69"/>
+      <c r="C8" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25"/>
-      <c r="B9" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" s="93" customFormat="1" spans="1:9">
-      <c r="A10" s="25"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="69"/>
-    </row>
-    <row r="11" s="93" customFormat="1" spans="1:9">
-      <c r="A11" s="25"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="69"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" s="91" customFormat="1" spans="1:9">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" s="91" customFormat="1" spans="1:9">
+      <c r="A11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="47" t="s">
+      <c r="C12" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="69"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="48"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="70"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="80"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="91"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80"/>
-      <c r="B17" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="85" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="C17" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="91"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="91"/>
+      <c r="C19" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="85" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="91"/>
+      <c r="C20" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="91"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="85" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="91"/>
+      <c r="C22" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="72"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="73"/>
+      <c r="A24" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="25"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="74"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="75"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="52"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="77"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7217,460 +7220,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="63"/>
+      <c r="A1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="87"/>
+      <c r="A3" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="88"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="88"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="52"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="89"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
-      <c r="B8" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="44" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="69"/>
+      <c r="C8" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="69"/>
+      <c r="C9" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="25"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="69"/>
+      <c r="C12" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="69"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="48"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="70"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="80"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="91"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80"/>
-      <c r="B17" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="85" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="C17" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="91"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="91"/>
+      <c r="C19" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="91"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="91"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="85" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="91"/>
+      <c r="C22" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="58"/>
-      <c r="B23" s="86" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="92"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50" t="s">
+      <c r="A24" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="50" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="I24" s="71"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51">
         <v>8</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51">
         <v>6</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53">
+      <c r="E25" s="51"/>
+      <c r="F25" s="51">
         <v>0</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53">
+      <c r="G25" s="51"/>
+      <c r="H25" s="51">
         <v>2</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="73"/>
+      <c r="A26" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="74"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="52"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="77"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -7741,268 +7744,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="63"/>
+      <c r="A1" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="66"/>
+      <c r="C4" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="67"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="68"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="69"/>
+      <c r="C7" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="69"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="69"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="69"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="70"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="A12" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51">
         <v>13</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51">
         <v>9</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51">
         <v>2</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
         <v>2</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="73"/>
+      <c r="A14" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="74"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="75"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="77"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -8054,54 +8057,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
-      <c r="A3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
-      <c r="A4" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8135,19 +8138,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8155,10 +8158,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8172,10 +8175,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8189,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8206,10 +8209,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8223,10 +8226,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8240,10 +8243,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8257,16 +8260,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8274,16 +8277,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8291,10 +8294,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8308,10 +8311,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8325,16 +8328,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8342,10 +8345,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8359,7 +8362,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8370,10 +8373,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8387,16 +8390,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8404,10 +8407,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8421,10 +8424,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8438,10 +8441,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8455,10 +8458,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8472,10 +8475,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8489,10 +8492,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8506,10 +8509,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8523,15 +8526,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>288</v>
+        <v>314</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -8540,15 +8543,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>42555</v>
       </c>
     </row>
@@ -8557,10 +8560,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8574,10 +8577,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8591,10 +8594,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>288</v>
+        <v>318</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8608,10 +8611,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
@@ -8625,10 +8628,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D30" s="3">
         <v>42567</v>
@@ -8642,12 +8645,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="6">
+        <v>321</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="3">
         <v>42567</v>
       </c>
       <c r="E31" s="3">
@@ -8659,15 +8662,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="6">
+        <v>322</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="3">
         <v>42568</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>42569</v>
       </c>
     </row>
@@ -8676,15 +8679,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="6">
+        <v>323</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="3">
         <v>42568</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>42569</v>
       </c>
     </row>

--- a/doc/平台/版本规划.xlsx
+++ b/doc/平台/版本规划.xlsx
@@ -204,9 +204,6 @@
     <t>余额统一整改为实时余额</t>
   </si>
   <si>
-    <t>搜索大小写不敏感</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -1080,6 +1077,9 @@
   </si>
   <si>
     <t>报告增加玩前必读</t>
+  </si>
+  <si>
+    <t>搜索大小写不敏感统一整改</t>
   </si>
 </sst>
 </file>
@@ -1088,9 +1088,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1126,6 +1126,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1140,6 +1147,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1148,23 +1162,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,38 +1200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1219,6 +1219,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,36 +1255,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,7 +1314,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,37 +1446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,133 +1494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,56 +2076,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2149,6 +2099,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2157,10 +2157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2169,16 +2169,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2187,115 +2187,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4328,7 +4328,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H75" totalsRowShown="0">
-  <autoFilter ref="A1:H75"/>
+  <autoFilter ref="A1:H75">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="0.0.4"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="IR"/>
     <tableColumn id="2" name="SR"/>
@@ -4344,7 +4350,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E33" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E34" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="内容"/>
@@ -5323,13 +5329,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
@@ -5362,11 +5368,6 @@
     <row r="5" spans="1:1">
       <c r="A5" s="95" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="95" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5380,8 +5381,8 @@
   <sheetPr/>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5398,1329 +5399,1329 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" ht="27" hidden="1" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" ht="27" hidden="1" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:8">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="8" hidden="1" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="94" t="s">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="94" t="s">
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" ht="27" hidden="1" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="E12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" hidden="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="94" t="s">
+    </row>
+    <row r="14" hidden="1" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" hidden="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="94" t="s">
-        <v>94</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="E16" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="1" spans="1:8">
+    <row r="17" customFormat="1" hidden="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="94" t="s">
-        <v>99</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" hidden="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="94" t="s">
-        <v>101</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="27" hidden="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="94" t="s">
-        <v>103</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" hidden="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="94" t="s">
-        <v>105</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" ht="27" hidden="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="94" t="s">
-        <v>107</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="94" t="s">
-        <v>109</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>111</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="94" t="s">
-        <v>113</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="94" t="s">
-        <v>115</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="E26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>122</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>129</v>
       </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
-        <v>135</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>138</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="D36" t="s">
-        <v>145</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="D37" t="s">
-        <v>148</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="D39" t="s">
-        <v>152</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
         <v>153</v>
       </c>
-      <c r="D40" t="s">
-        <v>154</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
         <v>155</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>156</v>
       </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
-        <v>159</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="94" t="s">
-        <v>161</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
         <v>162</v>
       </c>
-      <c r="D44" t="s">
-        <v>163</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="D47" t="s">
-        <v>170</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
         <v>171</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>172</v>
       </c>
-      <c r="D48" t="s">
-        <v>173</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
         <v>174</v>
       </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
         <v>176</v>
       </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
         <v>178</v>
       </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
         <v>180</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" t="s">
         <v>183</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="E53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" ht="27" hidden="1" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" ht="27" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
         <v>186</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="94" t="s">
+    </row>
+    <row r="55" hidden="1" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="94" t="s">
+    </row>
+    <row r="56" ht="40.5" hidden="1" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="56" ht="40.5" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="94" t="s">
+    </row>
+    <row r="57" ht="40.5" hidden="1" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" ht="40.5" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="94" t="s">
+    </row>
+    <row r="58" ht="40.5" hidden="1" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" ht="40.5" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="94" t="s">
+    </row>
+    <row r="59" ht="27" hidden="1" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="59" ht="27" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
         <v>197</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="94" t="s">
+    </row>
+    <row r="60" hidden="1" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="94" t="s">
+    </row>
+    <row r="61" ht="27" hidden="1" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="61" ht="27" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="94" t="s">
+    </row>
+    <row r="62" ht="40.5" hidden="1" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="62" ht="40.5" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="94" t="s">
+    </row>
+    <row r="63" hidden="1" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
         <v>206</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>207</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" ht="27" hidden="1" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="64" ht="27" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="94" t="s">
+    </row>
+    <row r="65" hidden="1" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>211</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" hidden="1" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" t="s">
         <v>213</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>214</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="67" ht="40.5" hidden="1" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="67" ht="40.5" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="D67" s="94" t="s">
+    </row>
+    <row r="68" hidden="1" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" t="s">
         <v>218</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>219</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="69" hidden="1" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>221</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" ht="27" hidden="1" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" ht="27" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="94" t="s">
+    </row>
+    <row r="71" hidden="1" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>226</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="72" hidden="1" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>228</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="73" ht="27" hidden="1" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="73" ht="27" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="D73" s="94" t="s">
+    </row>
+    <row r="74" hidden="1" spans="1:4">
+      <c r="A74" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" t="s">
         <v>233</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>234</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="75" hidden="1" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>236</v>
-      </c>
-      <c r="D75" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6749,7 +6750,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -6773,10 +6774,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>240</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -6843,38 +6844,38 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>242</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>244</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>245</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -6906,16 +6907,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -6973,24 +6974,24 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>252</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I17" s="89"/>
     </row>
@@ -7007,7 +7008,7 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="89"/>
     </row>
@@ -7017,31 +7018,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>255</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>256</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I20" s="89"/>
     </row>
@@ -7058,7 +7059,7 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="89"/>
     </row>
@@ -7068,14 +7069,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="89"/>
     </row>
@@ -7092,16 +7093,16 @@
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>259</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>260</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -7138,7 +7139,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -7225,7 +7226,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7249,10 +7250,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>240</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -7319,19 +7320,19 @@
     <row r="8" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>242</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="67"/>
     </row>
@@ -7341,16 +7342,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -7382,16 +7383,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="67"/>
     </row>
@@ -7449,24 +7450,24 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="78"/>
       <c r="B17" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>252</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I17" s="89"/>
     </row>
@@ -7483,7 +7484,7 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="89"/>
     </row>
@@ -7493,31 +7494,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="78"/>
       <c r="B20" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>255</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>256</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="89"/>
     </row>
@@ -7534,7 +7535,7 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="89"/>
     </row>
@@ -7544,14 +7545,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="89"/>
     </row>
@@ -7568,28 +7569,28 @@
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>263</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="69"/>
     </row>
@@ -7614,10 +7615,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -7654,7 +7655,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -7749,7 +7750,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7798,16 +7799,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="64"/>
     </row>
@@ -7839,16 +7840,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="67"/>
     </row>
@@ -7877,19 +7878,19 @@
     <row r="10" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>274</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>275</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -7906,22 +7907,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>263</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I12" s="69"/>
     </row>
@@ -7946,10 +7947,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -7986,7 +7987,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -8058,7 +8059,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8069,10 +8070,10 @@
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -8082,10 +8083,10 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -8095,10 +8096,10 @@
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -8121,10 +8122,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A32" sqref="A32:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8138,19 +8139,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8158,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8175,10 +8176,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8192,10 +8193,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8209,10 +8210,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8226,10 +8227,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8243,10 +8244,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8260,16 +8261,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8277,16 +8278,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8294,10 +8295,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8311,10 +8312,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8328,16 +8329,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -8345,10 +8346,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8362,7 +8363,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
@@ -8373,10 +8374,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8390,16 +8391,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8407,10 +8408,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8424,10 +8425,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8441,10 +8442,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8458,10 +8459,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8475,10 +8476,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8492,10 +8493,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8509,10 +8510,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8526,10 +8527,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8543,10 +8544,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8560,10 +8561,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8577,10 +8578,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8594,10 +8595,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8611,10 +8612,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
@@ -8628,10 +8629,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="3">
         <v>42567</v>
@@ -8645,10 +8646,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" s="3">
         <v>42567</v>
@@ -8662,10 +8663,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D32" s="3">
         <v>42568</v>
@@ -8679,16 +8680,33 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="3">
         <v>42568</v>
       </c>
       <c r="E33" s="3">
         <v>42569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="3">
+        <v>42570</v>
+      </c>
+      <c r="E34" s="3">
+        <v>42572</v>
       </c>
     </row>
   </sheetData>
